--- a/gengxiang/data/sh000001.xlsx
+++ b/gengxiang/data/sh000001.xlsx
@@ -1,84 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\StockTips\gengxiang\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740883D6-FFCC-41A5-9596-23E6B66750FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>volume</t>
-  </si>
-  <si>
-    <t>t_volume</t>
-  </si>
-  <si>
-    <t>2022-09-30</t>
-  </si>
-  <si>
-    <t>上证指数</t>
-  </si>
-  <si>
-    <t>sh000001</t>
-  </si>
-  <si>
-    <t>t_change</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="164" formatCode="0.00_ "/>
+    <numFmt numFmtId="165" formatCode="0_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
+      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -94,37 +52,103 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -385,73 +409,647 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
-    <col min="2" max="2" width="13.58203125" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.9140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="1"/>
+    <col width="12.1640625" customWidth="1" style="4" min="1" max="1"/>
+    <col width="13.58203125" customWidth="1" style="4" min="2" max="2"/>
+    <col width="12.6640625" customWidth="1" style="4" min="3" max="3"/>
+    <col width="12.75" customWidth="1" style="5" min="4" max="4"/>
+    <col width="14.5" customWidth="1" style="6" min="5" max="5"/>
+    <col width="13.9140625" customWidth="1" style="6" min="6" max="6"/>
+    <col width="8.6640625" customWidth="1" style="5" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="3">
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="D1" s="5" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="E1" s="6" t="inlineStr">
+        <is>
+          <t>volume</t>
+        </is>
+      </c>
+      <c r="F1" s="6" t="inlineStr">
+        <is>
+          <t>t_volume</t>
+        </is>
+      </c>
+      <c r="G1" s="5" t="inlineStr">
+        <is>
+          <t>t_change</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" customFormat="1" s="3">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>2022-10-14</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>上证指数</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>sh000001</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>3071.99</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>277304061</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>37205069</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>上证指数</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>sh000001</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>3016.36</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>249683281</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>31776479</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>2022-10-12</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>上证指数</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>sh000001</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>3025.51</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>248013557</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>30687133</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>2022-10-11</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>上证指数</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>sh000001</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>2979.79</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>208635950</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>24671564</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>2022-10-10</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>上证指数</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>sh000001</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>2974.15</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>243404828</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>29012002</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>上证指数</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>sh000001</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="n">
         <v>3024.39</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E7" s="3" t="n">
         <v>204115336</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F7" s="3" t="n">
         <v>24026277</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G7" s="3" t="n">
         <v>0.47</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>上证指数</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>sh000001</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>3041.2</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>230030416</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>27644100</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>上证指数</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>sh000001</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>3045.07</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>230098650</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>27604000</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>上证指数</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>sh000001</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>3093.86</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>232735303</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>29006600</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>上证指数</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>sh000001</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>3051.23</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>262698628</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>29353600</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>2022-09-23</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>上证指数</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>sh000001</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>3088.37</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>243057719</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>28555300</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>2022-09-22</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>上证指数</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>sh000001</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>3108.91</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>221140689</v>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>26997900</v>
+      </c>
+      <c r="G13" s="3" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>2022-09-21</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>上证指数</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>sh000001</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>3117.18</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>232972496</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>26951400</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>2022-09-20</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>上证指数</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>sh000001</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>3122.41</v>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>219942534</v>
+      </c>
+      <c r="F15" s="3" t="n">
+        <v>26860000</v>
+      </c>
+      <c r="G15" s="3" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>上证指数</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>sh000001</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="n">
+        <v>3115.6</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>249113662</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>28991900</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>上证指数</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>sh000001</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="n">
+        <v>3126.4</v>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>316475893</v>
+      </c>
+      <c r="F17" s="3" t="n">
+        <v>35508500</v>
+      </c>
+      <c r="G17" s="3" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>上证指数</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>sh000001</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="n">
+        <v>3199.92</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>325206121</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>39249100</v>
+      </c>
+      <c r="G18" s="3" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>2022-09-14</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>上证指数</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>sh000001</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="n">
+        <v>3237.54</v>
+      </c>
+      <c r="E19" s="3" t="n">
+        <v>255193365</v>
+      </c>
+      <c r="F19" s="3" t="n">
+        <v>30645300</v>
+      </c>
+      <c r="G19" s="3" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>上证指数</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>sh000001</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="n">
+        <v>3263.8</v>
+      </c>
+      <c r="E20" s="3" t="n">
+        <v>276189823</v>
+      </c>
+      <c r="F20" s="3" t="n">
+        <v>33902200</v>
+      </c>
+      <c r="G20" s="3" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>2022-09-09</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>上证指数</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>sh000001</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="n">
+        <v>3262.05</v>
+      </c>
+      <c r="E21" s="3" t="n">
+        <v>283827665</v>
+      </c>
+      <c r="F21" s="3" t="n">
+        <v>33856700</v>
+      </c>
+      <c r="G21" s="3" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/gengxiang/data/sh000001.xlsx
+++ b/gengxiang/data/sh000001.xlsx
@@ -2,35 +2,27 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.00_ "/>
-    <numFmt numFmtId="165" formatCode="0_ "/>
-  </numFmts>
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <name val="等线"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -52,35 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -153,7 +125,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -163,44 +135,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -227,15 +199,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -262,7 +233,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -274,131 +244,160 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -416,640 +415,630 @@
   </sheetPr>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14"/>
-  <cols>
-    <col width="12.1640625" customWidth="1" style="4" min="1" max="1"/>
-    <col width="13.58203125" customWidth="1" style="4" min="2" max="2"/>
-    <col width="12.6640625" customWidth="1" style="4" min="3" max="3"/>
-    <col width="12.75" customWidth="1" style="5" min="4" max="4"/>
-    <col width="14.5" customWidth="1" style="6" min="5" max="5"/>
-    <col width="13.9140625" customWidth="1" style="6" min="6" max="6"/>
-    <col width="8.6640625" customWidth="1" style="5" min="7" max="7"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>code</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>price</t>
         </is>
       </c>
-      <c r="E1" s="6" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>volume</t>
         </is>
       </c>
-      <c r="F1" s="6" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>t_volume</t>
         </is>
       </c>
-      <c r="G1" s="5" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>t_change</t>
         </is>
       </c>
     </row>
-    <row r="2" customFormat="1" s="3">
-      <c r="A2" s="3" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>2022-10-14</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>上证指数</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>sh000001</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>上证指数</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>sh000001</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>3071.99</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" t="n">
         <v>277304061</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" t="n">
         <v>37205069</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2" t="n">
         <v>0.65</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>2022-10-13</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>上证指数</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>sh000001</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>上证指数</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>sh000001</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>3016.36</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" t="n">
         <v>249683281</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F3" t="n">
         <v>31776479</v>
       </c>
-      <c r="G3" s="3" t="n">
+      <c r="G3" t="n">
         <v>0.58</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>2022-10-12</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>上证指数</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>sh000001</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>上证指数</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>sh000001</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>3025.51</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" t="n">
         <v>248013557</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" t="n">
         <v>30687133</v>
       </c>
-      <c r="G4" s="3" t="n">
+      <c r="G4" t="n">
         <v>0.58</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>2022-10-11</t>
         </is>
       </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>上证指数</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>sh000001</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>上证指数</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>sh000001</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>2979.79</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" t="n">
         <v>208635950</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" t="n">
         <v>24671564</v>
       </c>
-      <c r="G5" s="3" t="n">
+      <c r="G5" t="n">
         <v>0.49</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>2022-10-10</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>上证指数</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>sh000001</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>上证指数</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>sh000001</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>2974.15</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" t="n">
         <v>243404828</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" t="n">
         <v>29012002</v>
       </c>
-      <c r="G6" s="3" t="n">
+      <c r="G6" t="n">
         <v>0.57</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>2022-09-30</t>
         </is>
       </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>上证指数</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>sh000001</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>上证指数</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>sh000001</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>3024.39</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" t="n">
         <v>204115336</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F7" t="n">
         <v>24026277</v>
       </c>
-      <c r="G7" s="3" t="n">
+      <c r="G7" t="n">
         <v>0.47</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t>2022-09-29</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
-        <is>
-          <t>上证指数</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>sh000001</t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="n">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>上证指数</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>sh000001</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>3041.2</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" t="n">
         <v>230030416</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="F8" t="n">
         <v>27644100</v>
       </c>
-      <c r="G8" s="3" t="n">
+      <c r="G8" t="n">
         <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t>2022-09-28</t>
         </is>
       </c>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>上证指数</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>sh000001</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="n">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>上证指数</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>sh000001</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>3045.07</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" t="n">
         <v>230098650</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" t="n">
         <v>27604000</v>
       </c>
-      <c r="G9" s="3" t="n">
+      <c r="G9" t="n">
         <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>2022-09-27</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
-        <is>
-          <t>上证指数</t>
-        </is>
-      </c>
-      <c r="C10" s="3" t="inlineStr">
-        <is>
-          <t>sh000001</t>
-        </is>
-      </c>
-      <c r="D10" s="3" t="n">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>上证指数</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>sh000001</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>3093.86</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" t="n">
         <v>232735303</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F10" t="n">
         <v>29006600</v>
       </c>
-      <c r="G10" s="3" t="n">
+      <c r="G10" t="n">
         <v>0.57</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>2022-09-26</t>
         </is>
       </c>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>上证指数</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>sh000001</t>
-        </is>
-      </c>
-      <c r="D11" s="3" t="n">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>上证指数</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>sh000001</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
         <v>3051.23</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" t="n">
         <v>262698628</v>
       </c>
-      <c r="F11" s="3" t="n">
+      <c r="F11" t="n">
         <v>29353600</v>
       </c>
-      <c r="G11" s="3" t="n">
+      <c r="G11" t="n">
         <v>0.64</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>2022-09-23</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>上证指数</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>sh000001</t>
-        </is>
-      </c>
-      <c r="D12" s="3" t="n">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>上证指数</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>sh000001</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>3088.37</v>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" t="n">
         <v>243057719</v>
       </c>
-      <c r="F12" s="3" t="n">
+      <c r="F12" t="n">
         <v>28555300</v>
       </c>
-      <c r="G12" s="3" t="n">
+      <c r="G12" t="n">
         <v>0.6</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="inlineStr">
+      <c r="A13" t="inlineStr">
         <is>
           <t>2022-09-22</t>
         </is>
       </c>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>上证指数</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="inlineStr">
-        <is>
-          <t>sh000001</t>
-        </is>
-      </c>
-      <c r="D13" s="3" t="n">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>上证指数</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>sh000001</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>3108.91</v>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="E13" t="n">
         <v>221140689</v>
       </c>
-      <c r="F13" s="3" t="n">
+      <c r="F13" t="n">
         <v>26997900</v>
       </c>
-      <c r="G13" s="3" t="n">
+      <c r="G13" t="n">
         <v>0.54</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>2022-09-21</t>
         </is>
       </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>上证指数</t>
-        </is>
-      </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>sh000001</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="n">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>上证指数</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>sh000001</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>3117.18</v>
       </c>
-      <c r="E14" s="3" t="n">
+      <c r="E14" t="n">
         <v>232972496</v>
       </c>
-      <c r="F14" s="3" t="n">
+      <c r="F14" t="n">
         <v>26951400</v>
       </c>
-      <c r="G14" s="3" t="n">
+      <c r="G14" t="n">
         <v>0.57</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="inlineStr">
+      <c r="A15" t="inlineStr">
         <is>
           <t>2022-09-20</t>
         </is>
       </c>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>上证指数</t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>sh000001</t>
-        </is>
-      </c>
-      <c r="D15" s="3" t="n">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>上证指数</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>sh000001</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>3122.41</v>
       </c>
-      <c r="E15" s="3" t="n">
+      <c r="E15" t="n">
         <v>219942534</v>
       </c>
-      <c r="F15" s="3" t="n">
+      <c r="F15" t="n">
         <v>26860000</v>
       </c>
-      <c r="G15" s="3" t="n">
+      <c r="G15" t="n">
         <v>0.54</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="inlineStr">
+      <c r="A16" t="inlineStr">
         <is>
           <t>2022-09-19</t>
         </is>
       </c>
-      <c r="B16" s="3" t="inlineStr">
-        <is>
-          <t>上证指数</t>
-        </is>
-      </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>sh000001</t>
-        </is>
-      </c>
-      <c r="D16" s="3" t="n">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>上证指数</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>sh000001</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>3115.6</v>
       </c>
-      <c r="E16" s="3" t="n">
+      <c r="E16" t="n">
         <v>249113662</v>
       </c>
-      <c r="F16" s="3" t="n">
+      <c r="F16" t="n">
         <v>28991900</v>
       </c>
-      <c r="G16" s="3" t="n">
+      <c r="G16" t="n">
         <v>0.61</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="inlineStr">
+      <c r="A17" t="inlineStr">
         <is>
           <t>2022-09-16</t>
         </is>
       </c>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>上证指数</t>
-        </is>
-      </c>
-      <c r="C17" s="3" t="inlineStr">
-        <is>
-          <t>sh000001</t>
-        </is>
-      </c>
-      <c r="D17" s="3" t="n">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>上证指数</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>sh000001</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
         <v>3126.4</v>
       </c>
-      <c r="E17" s="3" t="n">
+      <c r="E17" t="n">
         <v>316475893</v>
       </c>
-      <c r="F17" s="3" t="n">
+      <c r="F17" t="n">
         <v>35508500</v>
       </c>
-      <c r="G17" s="3" t="n">
+      <c r="G17" t="n">
         <v>0.78</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="inlineStr">
+      <c r="A18" t="inlineStr">
         <is>
           <t>2022-09-15</t>
         </is>
       </c>
-      <c r="B18" s="3" t="inlineStr">
-        <is>
-          <t>上证指数</t>
-        </is>
-      </c>
-      <c r="C18" s="3" t="inlineStr">
-        <is>
-          <t>sh000001</t>
-        </is>
-      </c>
-      <c r="D18" s="3" t="n">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>上证指数</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>sh000001</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
         <v>3199.92</v>
       </c>
-      <c r="E18" s="3" t="n">
+      <c r="E18" t="n">
         <v>325206121</v>
       </c>
-      <c r="F18" s="3" t="n">
+      <c r="F18" t="n">
         <v>39249100</v>
       </c>
-      <c r="G18" s="3" t="n">
+      <c r="G18" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="inlineStr">
+      <c r="A19" t="inlineStr">
         <is>
           <t>2022-09-14</t>
         </is>
       </c>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>上证指数</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>sh000001</t>
-        </is>
-      </c>
-      <c r="D19" s="3" t="n">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>上证指数</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>sh000001</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
         <v>3237.54</v>
       </c>
-      <c r="E19" s="3" t="n">
+      <c r="E19" t="n">
         <v>255193365</v>
       </c>
-      <c r="F19" s="3" t="n">
+      <c r="F19" t="n">
         <v>30645300</v>
       </c>
-      <c r="G19" s="3" t="n">
+      <c r="G19" t="n">
         <v>0.63</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>2022-09-13</t>
         </is>
       </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>上证指数</t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="inlineStr">
-        <is>
-          <t>sh000001</t>
-        </is>
-      </c>
-      <c r="D20" s="3" t="n">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>上证指数</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>sh000001</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
         <v>3263.8</v>
       </c>
-      <c r="E20" s="3" t="n">
+      <c r="E20" t="n">
         <v>276189823</v>
       </c>
-      <c r="F20" s="3" t="n">
+      <c r="F20" t="n">
         <v>33902200</v>
       </c>
-      <c r="G20" s="3" t="n">
+      <c r="G20" t="n">
         <v>0.68</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="inlineStr">
+      <c r="A21" t="inlineStr">
         <is>
           <t>2022-09-09</t>
         </is>
       </c>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>上证指数</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr">
-        <is>
-          <t>sh000001</t>
-        </is>
-      </c>
-      <c r="D21" s="3" t="n">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>上证指数</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>sh000001</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
         <v>3262.05</v>
       </c>
-      <c r="E21" s="3" t="n">
+      <c r="E21" t="n">
         <v>283827665</v>
       </c>
-      <c r="F21" s="3" t="n">
+      <c r="F21" t="n">
         <v>33856700</v>
       </c>
-      <c r="G21" s="3" t="n">
+      <c r="G21" t="n">
         <v>0.7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/gengxiang/data/sh000001.xlsx
+++ b/gengxiang/data/sh000001.xlsx
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-10-14</t>
+          <t>2022-10-17</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3071.99</v>
+        <v>3084.94</v>
       </c>
       <c r="E2" t="n">
-        <v>277304061</v>
+        <v>262608618</v>
       </c>
       <c r="F2" t="n">
-        <v>37205069</v>
+        <v>34921447</v>
       </c>
       <c r="G2" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-10-13</t>
+          <t>2022-10-14</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3016.36</v>
+        <v>3071.99</v>
       </c>
       <c r="E3" t="n">
-        <v>249683281</v>
+        <v>277304061</v>
       </c>
       <c r="F3" t="n">
-        <v>31776479</v>
+        <v>37205069</v>
       </c>
       <c r="G3" t="n">
-        <v>0.58</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-10-12</t>
+          <t>2022-10-13</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,13 +533,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3025.51</v>
+        <v>3016.36</v>
       </c>
       <c r="E4" t="n">
-        <v>248013557</v>
+        <v>249683281</v>
       </c>
       <c r="F4" t="n">
-        <v>30687133</v>
+        <v>31776479</v>
       </c>
       <c r="G4" t="n">
         <v>0.58</v>
@@ -548,7 +548,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-10-11</t>
+          <t>2022-10-12</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,22 +562,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2979.79</v>
+        <v>3025.51</v>
       </c>
       <c r="E5" t="n">
-        <v>208635950</v>
+        <v>248013557</v>
       </c>
       <c r="F5" t="n">
-        <v>24671564</v>
+        <v>30687133</v>
       </c>
       <c r="G5" t="n">
-        <v>0.49</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-10-10</t>
+          <t>2022-10-11</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2974.15</v>
+        <v>2979.79</v>
       </c>
       <c r="E6" t="n">
-        <v>243404828</v>
+        <v>208635950</v>
       </c>
       <c r="F6" t="n">
-        <v>29012002</v>
+        <v>24671564</v>
       </c>
       <c r="G6" t="n">
-        <v>0.57</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-09-30</t>
+          <t>2022-10-10</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3024.39</v>
+        <v>2974.15</v>
       </c>
       <c r="E7" t="n">
-        <v>204115336</v>
+        <v>243404828</v>
       </c>
       <c r="F7" t="n">
-        <v>24026277</v>
+        <v>29012002</v>
       </c>
       <c r="G7" t="n">
-        <v>0.47</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-09-29</t>
+          <t>2022-09-30</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -649,22 +649,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3041.2</v>
+        <v>3024.39</v>
       </c>
       <c r="E8" t="n">
-        <v>230030416</v>
+        <v>204115336</v>
       </c>
       <c r="F8" t="n">
-        <v>27644100</v>
+        <v>24026277</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-09-28</t>
+          <t>2022-09-29</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -678,13 +678,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3045.07</v>
+        <v>3041.2</v>
       </c>
       <c r="E9" t="n">
-        <v>230098650</v>
+        <v>230030416</v>
       </c>
       <c r="F9" t="n">
-        <v>27604000</v>
+        <v>27644100</v>
       </c>
       <c r="G9" t="n">
         <v>0.5600000000000001</v>
@@ -693,7 +693,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-09-27</t>
+          <t>2022-09-28</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3093.86</v>
+        <v>3045.07</v>
       </c>
       <c r="E10" t="n">
-        <v>232735303</v>
+        <v>230098650</v>
       </c>
       <c r="F10" t="n">
-        <v>29006600</v>
+        <v>27604000</v>
       </c>
       <c r="G10" t="n">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-09-26</t>
+          <t>2022-09-27</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -736,22 +736,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3051.23</v>
+        <v>3093.86</v>
       </c>
       <c r="E11" t="n">
-        <v>262698628</v>
+        <v>232735303</v>
       </c>
       <c r="F11" t="n">
-        <v>29353600</v>
+        <v>29006600</v>
       </c>
       <c r="G11" t="n">
-        <v>0.64</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-09-23</t>
+          <t>2022-09-26</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3088.37</v>
+        <v>3051.23</v>
       </c>
       <c r="E12" t="n">
-        <v>243057719</v>
+        <v>262698628</v>
       </c>
       <c r="F12" t="n">
-        <v>28555300</v>
+        <v>29353600</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-09-22</t>
+          <t>2022-09-23</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -794,22 +794,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3108.91</v>
+        <v>3088.37</v>
       </c>
       <c r="E13" t="n">
-        <v>221140689</v>
+        <v>243057719</v>
       </c>
       <c r="F13" t="n">
-        <v>26997900</v>
+        <v>28555300</v>
       </c>
       <c r="G13" t="n">
-        <v>0.54</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-09-21</t>
+          <t>2022-09-22</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -823,22 +823,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3117.18</v>
+        <v>3108.91</v>
       </c>
       <c r="E14" t="n">
-        <v>232972496</v>
+        <v>221140689</v>
       </c>
       <c r="F14" t="n">
-        <v>26951400</v>
+        <v>26997900</v>
       </c>
       <c r="G14" t="n">
-        <v>0.57</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2022-09-20</t>
+          <t>2022-09-21</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -852,22 +852,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3122.41</v>
+        <v>3117.18</v>
       </c>
       <c r="E15" t="n">
-        <v>219942534</v>
+        <v>232972496</v>
       </c>
       <c r="F15" t="n">
-        <v>26860000</v>
+        <v>26951400</v>
       </c>
       <c r="G15" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2022-09-19</t>
+          <t>2022-09-20</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3115.6</v>
+        <v>3122.41</v>
       </c>
       <c r="E16" t="n">
-        <v>249113662</v>
+        <v>219942534</v>
       </c>
       <c r="F16" t="n">
-        <v>28991900</v>
+        <v>26860000</v>
       </c>
       <c r="G16" t="n">
-        <v>0.61</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2022-09-16</t>
+          <t>2022-09-19</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3126.4</v>
+        <v>3115.6</v>
       </c>
       <c r="E17" t="n">
-        <v>316475893</v>
+        <v>249113662</v>
       </c>
       <c r="F17" t="n">
-        <v>35508500</v>
+        <v>28991900</v>
       </c>
       <c r="G17" t="n">
-        <v>0.78</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2022-09-15</t>
+          <t>2022-09-16</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -939,22 +939,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3199.92</v>
+        <v>3126.4</v>
       </c>
       <c r="E18" t="n">
-        <v>325206121</v>
+        <v>316475893</v>
       </c>
       <c r="F18" t="n">
-        <v>39249100</v>
+        <v>35508500</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2022-09-14</t>
+          <t>2022-09-15</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -968,22 +968,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3237.54</v>
+        <v>3199.92</v>
       </c>
       <c r="E19" t="n">
-        <v>255193365</v>
+        <v>325206121</v>
       </c>
       <c r="F19" t="n">
-        <v>30645300</v>
+        <v>39249100</v>
       </c>
       <c r="G19" t="n">
-        <v>0.63</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2022-09-13</t>
+          <t>2022-09-14</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3263.8</v>
+        <v>3237.54</v>
       </c>
       <c r="E20" t="n">
-        <v>276189823</v>
+        <v>255193365</v>
       </c>
       <c r="F20" t="n">
-        <v>33902200</v>
+        <v>30645300</v>
       </c>
       <c r="G20" t="n">
-        <v>0.68</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2022-09-09</t>
+          <t>2022-09-13</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1026,16 +1026,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3262.05</v>
+        <v>3263.8</v>
       </c>
       <c r="E21" t="n">
-        <v>283827665</v>
+        <v>276189823</v>
       </c>
       <c r="F21" t="n">
-        <v>33856700</v>
+        <v>33902200</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7</v>
+        <v>0.68</v>
       </c>
     </row>
   </sheetData>

--- a/gengxiang/data/sh000001.xlsx
+++ b/gengxiang/data/sh000001.xlsx
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2022-10-18</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3084.94</v>
+        <v>3080.96</v>
       </c>
       <c r="E2" t="n">
-        <v>262608618</v>
+        <v>245634757</v>
       </c>
       <c r="F2" t="n">
-        <v>34921447</v>
+        <v>32600291</v>
       </c>
       <c r="G2" t="n">
-        <v>0.61</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-10-14</t>
+          <t>2022-10-17</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3071.99</v>
+        <v>3084.94</v>
       </c>
       <c r="E3" t="n">
-        <v>277304061</v>
+        <v>262608618</v>
       </c>
       <c r="F3" t="n">
-        <v>37205069</v>
+        <v>34921447</v>
       </c>
       <c r="G3" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-10-13</t>
+          <t>2022-10-14</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3016.36</v>
+        <v>3071.99</v>
       </c>
       <c r="E4" t="n">
-        <v>249683281</v>
+        <v>277304061</v>
       </c>
       <c r="F4" t="n">
-        <v>31776479</v>
+        <v>37205069</v>
       </c>
       <c r="G4" t="n">
-        <v>0.58</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-10-12</t>
+          <t>2022-10-13</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,13 +562,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3025.51</v>
+        <v>3016.36</v>
       </c>
       <c r="E5" t="n">
-        <v>248013557</v>
+        <v>249683281</v>
       </c>
       <c r="F5" t="n">
-        <v>30687133</v>
+        <v>31776479</v>
       </c>
       <c r="G5" t="n">
         <v>0.58</v>
@@ -577,7 +577,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-10-11</t>
+          <t>2022-10-12</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2979.79</v>
+        <v>3025.51</v>
       </c>
       <c r="E6" t="n">
-        <v>208635950</v>
+        <v>248013557</v>
       </c>
       <c r="F6" t="n">
-        <v>24671564</v>
+        <v>30687133</v>
       </c>
       <c r="G6" t="n">
-        <v>0.49</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-10-10</t>
+          <t>2022-10-11</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2974.15</v>
+        <v>2979.79</v>
       </c>
       <c r="E7" t="n">
-        <v>243404828</v>
+        <v>208635950</v>
       </c>
       <c r="F7" t="n">
-        <v>29012002</v>
+        <v>24671564</v>
       </c>
       <c r="G7" t="n">
-        <v>0.57</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-09-30</t>
+          <t>2022-10-10</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -649,22 +649,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3024.39</v>
+        <v>2974.15</v>
       </c>
       <c r="E8" t="n">
-        <v>204115336</v>
+        <v>243404828</v>
       </c>
       <c r="F8" t="n">
-        <v>24026277</v>
+        <v>29012002</v>
       </c>
       <c r="G8" t="n">
-        <v>0.47</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-09-29</t>
+          <t>2022-09-30</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -678,22 +678,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3041.2</v>
+        <v>3024.39</v>
       </c>
       <c r="E9" t="n">
-        <v>230030416</v>
+        <v>204115336</v>
       </c>
       <c r="F9" t="n">
-        <v>27644100</v>
+        <v>24026277</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-09-28</t>
+          <t>2022-09-29</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -707,13 +707,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3045.07</v>
+        <v>3041.2</v>
       </c>
       <c r="E10" t="n">
-        <v>230098650</v>
+        <v>230030416</v>
       </c>
       <c r="F10" t="n">
-        <v>27604000</v>
+        <v>27644100</v>
       </c>
       <c r="G10" t="n">
         <v>0.5600000000000001</v>
@@ -722,7 +722,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-09-27</t>
+          <t>2022-09-28</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -736,22 +736,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3093.86</v>
+        <v>3045.07</v>
       </c>
       <c r="E11" t="n">
-        <v>232735303</v>
+        <v>230098650</v>
       </c>
       <c r="F11" t="n">
-        <v>29006600</v>
+        <v>27604000</v>
       </c>
       <c r="G11" t="n">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-09-26</t>
+          <t>2022-09-27</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3051.23</v>
+        <v>3093.86</v>
       </c>
       <c r="E12" t="n">
-        <v>262698628</v>
+        <v>232735303</v>
       </c>
       <c r="F12" t="n">
-        <v>29353600</v>
+        <v>29006600</v>
       </c>
       <c r="G12" t="n">
-        <v>0.64</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-09-23</t>
+          <t>2022-09-26</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -794,22 +794,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3088.37</v>
+        <v>3051.23</v>
       </c>
       <c r="E13" t="n">
-        <v>243057719</v>
+        <v>262698628</v>
       </c>
       <c r="F13" t="n">
-        <v>28555300</v>
+        <v>29353600</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-09-22</t>
+          <t>2022-09-23</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -823,22 +823,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3108.91</v>
+        <v>3088.37</v>
       </c>
       <c r="E14" t="n">
-        <v>221140689</v>
+        <v>243057719</v>
       </c>
       <c r="F14" t="n">
-        <v>26997900</v>
+        <v>28555300</v>
       </c>
       <c r="G14" t="n">
-        <v>0.54</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2022-09-21</t>
+          <t>2022-09-22</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -852,22 +852,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3117.18</v>
+        <v>3108.91</v>
       </c>
       <c r="E15" t="n">
-        <v>232972496</v>
+        <v>221140689</v>
       </c>
       <c r="F15" t="n">
-        <v>26951400</v>
+        <v>26997900</v>
       </c>
       <c r="G15" t="n">
-        <v>0.57</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2022-09-20</t>
+          <t>2022-09-21</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3122.41</v>
+        <v>3117.18</v>
       </c>
       <c r="E16" t="n">
-        <v>219942534</v>
+        <v>232972496</v>
       </c>
       <c r="F16" t="n">
-        <v>26860000</v>
+        <v>26951400</v>
       </c>
       <c r="G16" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2022-09-19</t>
+          <t>2022-09-20</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3115.6</v>
+        <v>3122.41</v>
       </c>
       <c r="E17" t="n">
-        <v>249113662</v>
+        <v>219942534</v>
       </c>
       <c r="F17" t="n">
-        <v>28991900</v>
+        <v>26860000</v>
       </c>
       <c r="G17" t="n">
-        <v>0.61</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2022-09-16</t>
+          <t>2022-09-19</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -939,22 +939,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3126.4</v>
+        <v>3115.6</v>
       </c>
       <c r="E18" t="n">
-        <v>316475893</v>
+        <v>249113662</v>
       </c>
       <c r="F18" t="n">
-        <v>35508500</v>
+        <v>28991900</v>
       </c>
       <c r="G18" t="n">
-        <v>0.78</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2022-09-15</t>
+          <t>2022-09-16</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -968,22 +968,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3199.92</v>
+        <v>3126.4</v>
       </c>
       <c r="E19" t="n">
-        <v>325206121</v>
+        <v>316475893</v>
       </c>
       <c r="F19" t="n">
-        <v>39249100</v>
+        <v>35508500</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2022-09-14</t>
+          <t>2022-09-15</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3237.54</v>
+        <v>3199.92</v>
       </c>
       <c r="E20" t="n">
-        <v>255193365</v>
+        <v>325206121</v>
       </c>
       <c r="F20" t="n">
-        <v>30645300</v>
+        <v>39249100</v>
       </c>
       <c r="G20" t="n">
-        <v>0.63</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2022-09-13</t>
+          <t>2022-09-14</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1026,16 +1026,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3263.8</v>
+        <v>3237.54</v>
       </c>
       <c r="E21" t="n">
-        <v>276189823</v>
+        <v>255193365</v>
       </c>
       <c r="F21" t="n">
-        <v>33902200</v>
+        <v>30645300</v>
       </c>
       <c r="G21" t="n">
-        <v>0.68</v>
+        <v>0.63</v>
       </c>
     </row>
   </sheetData>

--- a/gengxiang/data/sh000001.xlsx
+++ b/gengxiang/data/sh000001.xlsx
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-10-21</t>
+          <t>2022-10-24</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3038.93</v>
+        <v>2977.56</v>
       </c>
       <c r="E2" t="n">
-        <v>245254122</v>
+        <v>298085356</v>
       </c>
       <c r="F2" t="n">
-        <v>31511099</v>
+        <v>39472594</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2022-10-21</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,13 +504,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3035.05</v>
+        <v>3038.93</v>
       </c>
       <c r="E3" t="n">
-        <v>244736145</v>
+        <v>245254122</v>
       </c>
       <c r="F3" t="n">
-        <v>34009134</v>
+        <v>31511099</v>
       </c>
       <c r="G3" t="n">
         <v>0.5600000000000001</v>
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-10-19</t>
+          <t>2022-10-20</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3044.38</v>
+        <v>3035.05</v>
       </c>
       <c r="E4" t="n">
-        <v>230895310</v>
+        <v>244736145</v>
       </c>
       <c r="F4" t="n">
-        <v>31310835</v>
+        <v>34009134</v>
       </c>
       <c r="G4" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-10-18</t>
+          <t>2022-10-19</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,22 +562,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3080.96</v>
+        <v>3044.38</v>
       </c>
       <c r="E5" t="n">
-        <v>245634757</v>
+        <v>230895310</v>
       </c>
       <c r="F5" t="n">
-        <v>32600291</v>
+        <v>31310835</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2022-10-18</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3084.94</v>
+        <v>3080.96</v>
       </c>
       <c r="E6" t="n">
-        <v>262608618</v>
+        <v>245634757</v>
       </c>
       <c r="F6" t="n">
-        <v>34921447</v>
+        <v>32600291</v>
       </c>
       <c r="G6" t="n">
-        <v>0.61</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-10-14</t>
+          <t>2022-10-17</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3071.99</v>
+        <v>3084.94</v>
       </c>
       <c r="E7" t="n">
-        <v>277304061</v>
+        <v>262608618</v>
       </c>
       <c r="F7" t="n">
-        <v>37205069</v>
+        <v>34921447</v>
       </c>
       <c r="G7" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-10-13</t>
+          <t>2022-10-14</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -649,22 +649,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3016.36</v>
+        <v>3071.99</v>
       </c>
       <c r="E8" t="n">
-        <v>249683281</v>
+        <v>277304061</v>
       </c>
       <c r="F8" t="n">
-        <v>31776479</v>
+        <v>37205069</v>
       </c>
       <c r="G8" t="n">
-        <v>0.58</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-10-12</t>
+          <t>2022-10-13</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -678,13 +678,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3025.51</v>
+        <v>3016.36</v>
       </c>
       <c r="E9" t="n">
-        <v>248013557</v>
+        <v>249683281</v>
       </c>
       <c r="F9" t="n">
-        <v>30687133</v>
+        <v>31776479</v>
       </c>
       <c r="G9" t="n">
         <v>0.58</v>
@@ -693,7 +693,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-10-11</t>
+          <t>2022-10-12</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2979.79</v>
+        <v>3025.51</v>
       </c>
       <c r="E10" t="n">
-        <v>208635950</v>
+        <v>248013557</v>
       </c>
       <c r="F10" t="n">
-        <v>24671564</v>
+        <v>30687133</v>
       </c>
       <c r="G10" t="n">
-        <v>0.49</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-10-10</t>
+          <t>2022-10-11</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -736,22 +736,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2974.15</v>
+        <v>2979.79</v>
       </c>
       <c r="E11" t="n">
-        <v>243404828</v>
+        <v>208635950</v>
       </c>
       <c r="F11" t="n">
-        <v>29012002</v>
+        <v>24671564</v>
       </c>
       <c r="G11" t="n">
-        <v>0.57</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-09-30</t>
+          <t>2022-10-10</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3024.39</v>
+        <v>2974.15</v>
       </c>
       <c r="E12" t="n">
-        <v>204115336</v>
+        <v>243404828</v>
       </c>
       <c r="F12" t="n">
-        <v>24026277</v>
+        <v>29012002</v>
       </c>
       <c r="G12" t="n">
-        <v>0.47</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-09-29</t>
+          <t>2022-09-30</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -794,22 +794,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3041.2</v>
+        <v>3024.39</v>
       </c>
       <c r="E13" t="n">
-        <v>230030416</v>
+        <v>204115336</v>
       </c>
       <c r="F13" t="n">
-        <v>27644100</v>
+        <v>24026277</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-09-28</t>
+          <t>2022-09-29</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -823,13 +823,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3045.07</v>
+        <v>3041.2</v>
       </c>
       <c r="E14" t="n">
-        <v>230098650</v>
+        <v>230030416</v>
       </c>
       <c r="F14" t="n">
-        <v>27604000</v>
+        <v>27644100</v>
       </c>
       <c r="G14" t="n">
         <v>0.5600000000000001</v>
@@ -838,7 +838,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2022-09-27</t>
+          <t>2022-09-28</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -852,22 +852,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3093.86</v>
+        <v>3045.07</v>
       </c>
       <c r="E15" t="n">
-        <v>232735303</v>
+        <v>230098650</v>
       </c>
       <c r="F15" t="n">
-        <v>29006600</v>
+        <v>27604000</v>
       </c>
       <c r="G15" t="n">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2022-09-26</t>
+          <t>2022-09-27</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3051.23</v>
+        <v>3093.86</v>
       </c>
       <c r="E16" t="n">
-        <v>262698628</v>
+        <v>232735303</v>
       </c>
       <c r="F16" t="n">
-        <v>29353600</v>
+        <v>29006600</v>
       </c>
       <c r="G16" t="n">
-        <v>0.64</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2022-09-23</t>
+          <t>2022-09-26</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3088.37</v>
+        <v>3051.23</v>
       </c>
       <c r="E17" t="n">
-        <v>243057719</v>
+        <v>262698628</v>
       </c>
       <c r="F17" t="n">
-        <v>28555300</v>
+        <v>29353600</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2022-09-22</t>
+          <t>2022-09-23</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -939,22 +939,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3108.91</v>
+        <v>3088.37</v>
       </c>
       <c r="E18" t="n">
-        <v>221140689</v>
+        <v>243057719</v>
       </c>
       <c r="F18" t="n">
-        <v>26997900</v>
+        <v>28555300</v>
       </c>
       <c r="G18" t="n">
-        <v>0.54</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2022-09-21</t>
+          <t>2022-09-22</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -968,22 +968,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3117.18</v>
+        <v>3108.91</v>
       </c>
       <c r="E19" t="n">
-        <v>232972496</v>
+        <v>221140689</v>
       </c>
       <c r="F19" t="n">
-        <v>26951400</v>
+        <v>26997900</v>
       </c>
       <c r="G19" t="n">
-        <v>0.57</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2022-09-20</t>
+          <t>2022-09-21</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3122.41</v>
+        <v>3117.18</v>
       </c>
       <c r="E20" t="n">
-        <v>219942534</v>
+        <v>232972496</v>
       </c>
       <c r="F20" t="n">
-        <v>26860000</v>
+        <v>26951400</v>
       </c>
       <c r="G20" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2022-09-19</t>
+          <t>2022-09-20</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1026,16 +1026,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3115.6</v>
+        <v>3122.41</v>
       </c>
       <c r="E21" t="n">
-        <v>249113662</v>
+        <v>219942534</v>
       </c>
       <c r="F21" t="n">
-        <v>28991900</v>
+        <v>26860000</v>
       </c>
       <c r="G21" t="n">
-        <v>0.61</v>
+        <v>0.54</v>
       </c>
     </row>
   </sheetData>

--- a/gengxiang/data/sh000001.xlsx
+++ b/gengxiang/data/sh000001.xlsx
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-10-24</t>
+          <t>2022-10-25</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2977.56</v>
+        <v>2976.28</v>
       </c>
       <c r="E2" t="n">
-        <v>298085356</v>
+        <v>255554160</v>
       </c>
       <c r="F2" t="n">
-        <v>39472594</v>
+        <v>33751928</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-10-21</t>
+          <t>2022-10-24</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3038.93</v>
+        <v>2977.56</v>
       </c>
       <c r="E3" t="n">
-        <v>245254122</v>
+        <v>298085356</v>
       </c>
       <c r="F3" t="n">
-        <v>31511099</v>
+        <v>39472594</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2022-10-21</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,13 +533,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3035.05</v>
+        <v>3038.93</v>
       </c>
       <c r="E4" t="n">
-        <v>244736145</v>
+        <v>245254122</v>
       </c>
       <c r="F4" t="n">
-        <v>34009134</v>
+        <v>31511099</v>
       </c>
       <c r="G4" t="n">
         <v>0.5600000000000001</v>
@@ -548,7 +548,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-10-19</t>
+          <t>2022-10-20</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,22 +562,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3044.38</v>
+        <v>3035.05</v>
       </c>
       <c r="E5" t="n">
-        <v>230895310</v>
+        <v>244736145</v>
       </c>
       <c r="F5" t="n">
-        <v>31310835</v>
+        <v>34009134</v>
       </c>
       <c r="G5" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-10-18</t>
+          <t>2022-10-19</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3080.96</v>
+        <v>3044.38</v>
       </c>
       <c r="E6" t="n">
-        <v>245634757</v>
+        <v>230895310</v>
       </c>
       <c r="F6" t="n">
-        <v>32600291</v>
+        <v>31310835</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2022-10-18</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3084.94</v>
+        <v>3080.96</v>
       </c>
       <c r="E7" t="n">
-        <v>262608618</v>
+        <v>245634757</v>
       </c>
       <c r="F7" t="n">
-        <v>34921447</v>
+        <v>32600291</v>
       </c>
       <c r="G7" t="n">
-        <v>0.61</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-10-14</t>
+          <t>2022-10-17</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -649,22 +649,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3071.99</v>
+        <v>3084.94</v>
       </c>
       <c r="E8" t="n">
-        <v>277304061</v>
+        <v>262608618</v>
       </c>
       <c r="F8" t="n">
-        <v>37205069</v>
+        <v>34921447</v>
       </c>
       <c r="G8" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-10-13</t>
+          <t>2022-10-14</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -678,22 +678,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3016.36</v>
+        <v>3071.99</v>
       </c>
       <c r="E9" t="n">
-        <v>249683281</v>
+        <v>277304061</v>
       </c>
       <c r="F9" t="n">
-        <v>31776479</v>
+        <v>37205069</v>
       </c>
       <c r="G9" t="n">
-        <v>0.58</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-10-12</t>
+          <t>2022-10-13</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -707,13 +707,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3025.51</v>
+        <v>3016.36</v>
       </c>
       <c r="E10" t="n">
-        <v>248013557</v>
+        <v>249683281</v>
       </c>
       <c r="F10" t="n">
-        <v>30687133</v>
+        <v>31776479</v>
       </c>
       <c r="G10" t="n">
         <v>0.58</v>
@@ -722,7 +722,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-10-11</t>
+          <t>2022-10-12</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -736,22 +736,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2979.79</v>
+        <v>3025.51</v>
       </c>
       <c r="E11" t="n">
-        <v>208635950</v>
+        <v>248013557</v>
       </c>
       <c r="F11" t="n">
-        <v>24671564</v>
+        <v>30687133</v>
       </c>
       <c r="G11" t="n">
-        <v>0.49</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-10-10</t>
+          <t>2022-10-11</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2974.15</v>
+        <v>2979.79</v>
       </c>
       <c r="E12" t="n">
-        <v>243404828</v>
+        <v>208635950</v>
       </c>
       <c r="F12" t="n">
-        <v>29012002</v>
+        <v>24671564</v>
       </c>
       <c r="G12" t="n">
-        <v>0.57</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-09-30</t>
+          <t>2022-10-10</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -794,22 +794,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3024.39</v>
+        <v>2974.15</v>
       </c>
       <c r="E13" t="n">
-        <v>204115336</v>
+        <v>243404828</v>
       </c>
       <c r="F13" t="n">
-        <v>24026277</v>
+        <v>29012002</v>
       </c>
       <c r="G13" t="n">
-        <v>0.47</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-09-29</t>
+          <t>2022-09-30</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -823,22 +823,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3041.2</v>
+        <v>3024.39</v>
       </c>
       <c r="E14" t="n">
-        <v>230030416</v>
+        <v>204115336</v>
       </c>
       <c r="F14" t="n">
-        <v>27644100</v>
+        <v>24026277</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2022-09-28</t>
+          <t>2022-09-29</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3045.07</v>
+        <v>3041.2</v>
       </c>
       <c r="E15" t="n">
-        <v>230098650</v>
+        <v>230030416</v>
       </c>
       <c r="F15" t="n">
-        <v>27604000</v>
+        <v>27644100</v>
       </c>
       <c r="G15" t="n">
         <v>0.5600000000000001</v>
@@ -867,7 +867,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2022-09-27</t>
+          <t>2022-09-28</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3093.86</v>
+        <v>3045.07</v>
       </c>
       <c r="E16" t="n">
-        <v>232735303</v>
+        <v>230098650</v>
       </c>
       <c r="F16" t="n">
-        <v>29006600</v>
+        <v>27604000</v>
       </c>
       <c r="G16" t="n">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2022-09-26</t>
+          <t>2022-09-27</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3051.23</v>
+        <v>3093.86</v>
       </c>
       <c r="E17" t="n">
-        <v>262698628</v>
+        <v>232735303</v>
       </c>
       <c r="F17" t="n">
-        <v>29353600</v>
+        <v>29006600</v>
       </c>
       <c r="G17" t="n">
-        <v>0.64</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2022-09-23</t>
+          <t>2022-09-26</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -939,22 +939,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3088.37</v>
+        <v>3051.23</v>
       </c>
       <c r="E18" t="n">
-        <v>243057719</v>
+        <v>262698628</v>
       </c>
       <c r="F18" t="n">
-        <v>28555300</v>
+        <v>29353600</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2022-09-22</t>
+          <t>2022-09-23</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -968,22 +968,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3108.91</v>
+        <v>3088.37</v>
       </c>
       <c r="E19" t="n">
-        <v>221140689</v>
+        <v>243057719</v>
       </c>
       <c r="F19" t="n">
-        <v>26997900</v>
+        <v>28555300</v>
       </c>
       <c r="G19" t="n">
-        <v>0.54</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2022-09-21</t>
+          <t>2022-09-22</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3117.18</v>
+        <v>3108.91</v>
       </c>
       <c r="E20" t="n">
-        <v>232972496</v>
+        <v>221140689</v>
       </c>
       <c r="F20" t="n">
-        <v>26951400</v>
+        <v>26997900</v>
       </c>
       <c r="G20" t="n">
-        <v>0.57</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2022-09-20</t>
+          <t>2022-09-21</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1026,16 +1026,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3122.41</v>
+        <v>3117.18</v>
       </c>
       <c r="E21" t="n">
-        <v>219942534</v>
+        <v>232972496</v>
       </c>
       <c r="F21" t="n">
-        <v>26860000</v>
+        <v>26951400</v>
       </c>
       <c r="G21" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
     </row>
   </sheetData>

--- a/gengxiang/data/sh000001.xlsx
+++ b/gengxiang/data/sh000001.xlsx
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-10-25</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2976.28</v>
+        <v>2982.9</v>
       </c>
       <c r="E2" t="n">
-        <v>255554160</v>
+        <v>265608254</v>
       </c>
       <c r="F2" t="n">
-        <v>33751928</v>
+        <v>38133037</v>
       </c>
       <c r="G2" t="n">
-        <v>0.59</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-10-24</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2977.56</v>
+        <v>2999.5</v>
       </c>
       <c r="E3" t="n">
-        <v>298085356</v>
+        <v>268689492</v>
       </c>
       <c r="F3" t="n">
-        <v>39472594</v>
+        <v>37284527</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-10-21</t>
+          <t>2022-10-25</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3038.93</v>
+        <v>2976.28</v>
       </c>
       <c r="E4" t="n">
-        <v>245254122</v>
+        <v>255554160</v>
       </c>
       <c r="F4" t="n">
-        <v>31511099</v>
+        <v>33751928</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2022-10-24</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,22 +562,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3035.05</v>
+        <v>2977.56</v>
       </c>
       <c r="E5" t="n">
-        <v>244736145</v>
+        <v>298085356</v>
       </c>
       <c r="F5" t="n">
-        <v>34009134</v>
+        <v>39472594</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-10-19</t>
+          <t>2022-10-21</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3044.38</v>
+        <v>3038.93</v>
       </c>
       <c r="E6" t="n">
-        <v>230895310</v>
+        <v>245254122</v>
       </c>
       <c r="F6" t="n">
-        <v>31310835</v>
+        <v>31511099</v>
       </c>
       <c r="G6" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-10-18</t>
+          <t>2022-10-20</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -620,13 +620,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3080.96</v>
+        <v>3035.05</v>
       </c>
       <c r="E7" t="n">
-        <v>245634757</v>
+        <v>244736145</v>
       </c>
       <c r="F7" t="n">
-        <v>32600291</v>
+        <v>34009134</v>
       </c>
       <c r="G7" t="n">
         <v>0.5600000000000001</v>
@@ -635,7 +635,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2022-10-19</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -649,22 +649,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3084.94</v>
+        <v>3044.38</v>
       </c>
       <c r="E8" t="n">
-        <v>262608618</v>
+        <v>230895310</v>
       </c>
       <c r="F8" t="n">
-        <v>34921447</v>
+        <v>31310835</v>
       </c>
       <c r="G8" t="n">
-        <v>0.61</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-10-14</t>
+          <t>2022-10-18</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -678,22 +678,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3071.99</v>
+        <v>3080.96</v>
       </c>
       <c r="E9" t="n">
-        <v>277304061</v>
+        <v>245634757</v>
       </c>
       <c r="F9" t="n">
-        <v>37205069</v>
+        <v>32600291</v>
       </c>
       <c r="G9" t="n">
-        <v>0.65</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-10-13</t>
+          <t>2022-10-17</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3016.36</v>
+        <v>3084.94</v>
       </c>
       <c r="E10" t="n">
-        <v>249683281</v>
+        <v>262608618</v>
       </c>
       <c r="F10" t="n">
-        <v>31776479</v>
+        <v>34921447</v>
       </c>
       <c r="G10" t="n">
-        <v>0.58</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-10-12</t>
+          <t>2022-10-14</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -736,22 +736,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3025.51</v>
+        <v>3071.99</v>
       </c>
       <c r="E11" t="n">
-        <v>248013557</v>
+        <v>277304061</v>
       </c>
       <c r="F11" t="n">
-        <v>30687133</v>
+        <v>37205069</v>
       </c>
       <c r="G11" t="n">
-        <v>0.58</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-10-11</t>
+          <t>2022-10-13</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2979.79</v>
+        <v>3016.36</v>
       </c>
       <c r="E12" t="n">
-        <v>208635950</v>
+        <v>249683281</v>
       </c>
       <c r="F12" t="n">
-        <v>24671564</v>
+        <v>31776479</v>
       </c>
       <c r="G12" t="n">
-        <v>0.49</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-10-10</t>
+          <t>2022-10-12</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -794,22 +794,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2974.15</v>
+        <v>3025.51</v>
       </c>
       <c r="E13" t="n">
-        <v>243404828</v>
+        <v>248013557</v>
       </c>
       <c r="F13" t="n">
-        <v>29012002</v>
+        <v>30687133</v>
       </c>
       <c r="G13" t="n">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-09-30</t>
+          <t>2022-10-11</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -823,22 +823,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3024.39</v>
+        <v>2979.79</v>
       </c>
       <c r="E14" t="n">
-        <v>204115336</v>
+        <v>208635950</v>
       </c>
       <c r="F14" t="n">
-        <v>24026277</v>
+        <v>24671564</v>
       </c>
       <c r="G14" t="n">
-        <v>0.47</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2022-09-29</t>
+          <t>2022-10-10</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -852,22 +852,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3041.2</v>
+        <v>2974.15</v>
       </c>
       <c r="E15" t="n">
-        <v>230030416</v>
+        <v>243404828</v>
       </c>
       <c r="F15" t="n">
-        <v>27644100</v>
+        <v>29012002</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2022-09-28</t>
+          <t>2022-09-30</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3045.07</v>
+        <v>3024.39</v>
       </c>
       <c r="E16" t="n">
-        <v>230098650</v>
+        <v>204115336</v>
       </c>
       <c r="F16" t="n">
-        <v>27604000</v>
+        <v>24026277</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2022-09-27</t>
+          <t>2022-09-29</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3093.86</v>
+        <v>3041.2</v>
       </c>
       <c r="E17" t="n">
-        <v>232735303</v>
+        <v>230030416</v>
       </c>
       <c r="F17" t="n">
-        <v>29006600</v>
+        <v>27644100</v>
       </c>
       <c r="G17" t="n">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2022-09-26</t>
+          <t>2022-09-28</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -939,22 +939,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3051.23</v>
+        <v>3045.07</v>
       </c>
       <c r="E18" t="n">
-        <v>262698628</v>
+        <v>230098650</v>
       </c>
       <c r="F18" t="n">
-        <v>29353600</v>
+        <v>27604000</v>
       </c>
       <c r="G18" t="n">
-        <v>0.64</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2022-09-23</t>
+          <t>2022-09-27</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -968,22 +968,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3088.37</v>
+        <v>3093.86</v>
       </c>
       <c r="E19" t="n">
-        <v>243057719</v>
+        <v>232735303</v>
       </c>
       <c r="F19" t="n">
-        <v>28555300</v>
+        <v>29006600</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2022-09-22</t>
+          <t>2022-09-26</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3108.91</v>
+        <v>3051.23</v>
       </c>
       <c r="E20" t="n">
-        <v>221140689</v>
+        <v>262698628</v>
       </c>
       <c r="F20" t="n">
-        <v>26997900</v>
+        <v>29353600</v>
       </c>
       <c r="G20" t="n">
-        <v>0.54</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2022-09-21</t>
+          <t>2022-09-23</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1026,16 +1026,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3117.18</v>
+        <v>3088.37</v>
       </c>
       <c r="E21" t="n">
-        <v>232972496</v>
+        <v>243057719</v>
       </c>
       <c r="F21" t="n">
-        <v>26951400</v>
+        <v>28555300</v>
       </c>
       <c r="G21" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>

--- a/gengxiang/data/sh000001.xlsx
+++ b/gengxiang/data/sh000001.xlsx
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2022-10-28</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2982.9</v>
+        <v>2915.93</v>
       </c>
       <c r="E2" t="n">
-        <v>265608254</v>
+        <v>292531308</v>
       </c>
       <c r="F2" t="n">
-        <v>38133037</v>
+        <v>38526136</v>
       </c>
       <c r="G2" t="n">
-        <v>0.62</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,13 +504,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2999.5</v>
+        <v>2982.9</v>
       </c>
       <c r="E3" t="n">
-        <v>268689492</v>
+        <v>265608254</v>
       </c>
       <c r="F3" t="n">
-        <v>37284527</v>
+        <v>38133037</v>
       </c>
       <c r="G3" t="n">
         <v>0.62</v>
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-10-25</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2976.28</v>
+        <v>2999.5</v>
       </c>
       <c r="E4" t="n">
-        <v>255554160</v>
+        <v>268689492</v>
       </c>
       <c r="F4" t="n">
-        <v>33751928</v>
+        <v>37284527</v>
       </c>
       <c r="G4" t="n">
-        <v>0.59</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-10-24</t>
+          <t>2022-10-25</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,22 +562,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2977.56</v>
+        <v>2976.28</v>
       </c>
       <c r="E5" t="n">
-        <v>298085356</v>
+        <v>255554160</v>
       </c>
       <c r="F5" t="n">
-        <v>39472594</v>
+        <v>33751928</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-10-21</t>
+          <t>2022-10-24</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3038.93</v>
+        <v>2977.56</v>
       </c>
       <c r="E6" t="n">
-        <v>245254122</v>
+        <v>298085356</v>
       </c>
       <c r="F6" t="n">
-        <v>31511099</v>
+        <v>39472594</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2022-10-21</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -620,13 +620,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3035.05</v>
+        <v>3038.93</v>
       </c>
       <c r="E7" t="n">
-        <v>244736145</v>
+        <v>245254122</v>
       </c>
       <c r="F7" t="n">
-        <v>34009134</v>
+        <v>31511099</v>
       </c>
       <c r="G7" t="n">
         <v>0.5600000000000001</v>
@@ -635,7 +635,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-10-19</t>
+          <t>2022-10-20</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -649,22 +649,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3044.38</v>
+        <v>3035.05</v>
       </c>
       <c r="E8" t="n">
-        <v>230895310</v>
+        <v>244736145</v>
       </c>
       <c r="F8" t="n">
-        <v>31310835</v>
+        <v>34009134</v>
       </c>
       <c r="G8" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-10-18</t>
+          <t>2022-10-19</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -678,22 +678,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3080.96</v>
+        <v>3044.38</v>
       </c>
       <c r="E9" t="n">
-        <v>245634757</v>
+        <v>230895310</v>
       </c>
       <c r="F9" t="n">
-        <v>32600291</v>
+        <v>31310835</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2022-10-18</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3084.94</v>
+        <v>3080.96</v>
       </c>
       <c r="E10" t="n">
-        <v>262608618</v>
+        <v>245634757</v>
       </c>
       <c r="F10" t="n">
-        <v>34921447</v>
+        <v>32600291</v>
       </c>
       <c r="G10" t="n">
-        <v>0.61</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-10-14</t>
+          <t>2022-10-17</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -736,22 +736,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3071.99</v>
+        <v>3084.94</v>
       </c>
       <c r="E11" t="n">
-        <v>277304061</v>
+        <v>262608618</v>
       </c>
       <c r="F11" t="n">
-        <v>37205069</v>
+        <v>34921447</v>
       </c>
       <c r="G11" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-10-13</t>
+          <t>2022-10-14</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3016.36</v>
+        <v>3071.99</v>
       </c>
       <c r="E12" t="n">
-        <v>249683281</v>
+        <v>277304061</v>
       </c>
       <c r="F12" t="n">
-        <v>31776479</v>
+        <v>37205069</v>
       </c>
       <c r="G12" t="n">
-        <v>0.58</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-10-12</t>
+          <t>2022-10-13</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -794,13 +794,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3025.51</v>
+        <v>3016.36</v>
       </c>
       <c r="E13" t="n">
-        <v>248013557</v>
+        <v>249683281</v>
       </c>
       <c r="F13" t="n">
-        <v>30687133</v>
+        <v>31776479</v>
       </c>
       <c r="G13" t="n">
         <v>0.58</v>
@@ -809,7 +809,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-10-11</t>
+          <t>2022-10-12</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -823,22 +823,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2979.79</v>
+        <v>3025.51</v>
       </c>
       <c r="E14" t="n">
-        <v>208635950</v>
+        <v>248013557</v>
       </c>
       <c r="F14" t="n">
-        <v>24671564</v>
+        <v>30687133</v>
       </c>
       <c r="G14" t="n">
-        <v>0.49</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2022-10-10</t>
+          <t>2022-10-11</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -852,22 +852,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2974.15</v>
+        <v>2979.79</v>
       </c>
       <c r="E15" t="n">
-        <v>243404828</v>
+        <v>208635950</v>
       </c>
       <c r="F15" t="n">
-        <v>29012002</v>
+        <v>24671564</v>
       </c>
       <c r="G15" t="n">
-        <v>0.57</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2022-09-30</t>
+          <t>2022-10-10</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3024.39</v>
+        <v>2974.15</v>
       </c>
       <c r="E16" t="n">
-        <v>204115336</v>
+        <v>243404828</v>
       </c>
       <c r="F16" t="n">
-        <v>24026277</v>
+        <v>29012002</v>
       </c>
       <c r="G16" t="n">
-        <v>0.47</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2022-09-29</t>
+          <t>2022-09-30</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3041.2</v>
+        <v>3024.39</v>
       </c>
       <c r="E17" t="n">
-        <v>230030416</v>
+        <v>204115336</v>
       </c>
       <c r="F17" t="n">
-        <v>27644100</v>
+        <v>24026277</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2022-09-28</t>
+          <t>2022-09-29</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -939,13 +939,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3045.07</v>
+        <v>3041.2</v>
       </c>
       <c r="E18" t="n">
-        <v>230098650</v>
+        <v>230030416</v>
       </c>
       <c r="F18" t="n">
-        <v>27604000</v>
+        <v>27644100</v>
       </c>
       <c r="G18" t="n">
         <v>0.5600000000000001</v>
@@ -954,7 +954,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2022-09-27</t>
+          <t>2022-09-28</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -968,22 +968,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3093.86</v>
+        <v>3045.07</v>
       </c>
       <c r="E19" t="n">
-        <v>232735303</v>
+        <v>230098650</v>
       </c>
       <c r="F19" t="n">
-        <v>29006600</v>
+        <v>27604000</v>
       </c>
       <c r="G19" t="n">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2022-09-26</t>
+          <t>2022-09-27</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3051.23</v>
+        <v>3093.86</v>
       </c>
       <c r="E20" t="n">
-        <v>262698628</v>
+        <v>232735303</v>
       </c>
       <c r="F20" t="n">
-        <v>29353600</v>
+        <v>29006600</v>
       </c>
       <c r="G20" t="n">
-        <v>0.64</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2022-09-23</t>
+          <t>2022-09-26</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1026,16 +1026,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3088.37</v>
+        <v>3051.23</v>
       </c>
       <c r="E21" t="n">
-        <v>243057719</v>
+        <v>262698628</v>
       </c>
       <c r="F21" t="n">
-        <v>28555300</v>
+        <v>29353600</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
     </row>
   </sheetData>

--- a/gengxiang/data/sh000001.xlsx
+++ b/gengxiang/data/sh000001.xlsx
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-10-28</t>
+          <t>2022-11-04</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2915.93</v>
+        <v>3070.8</v>
       </c>
       <c r="E2" t="n">
-        <v>292531308</v>
+        <v>329806740</v>
       </c>
       <c r="F2" t="n">
-        <v>38526136</v>
+        <v>45877009</v>
       </c>
       <c r="G2" t="n">
-        <v>0.68</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2982.9</v>
+        <v>2997.81</v>
       </c>
       <c r="E3" t="n">
-        <v>265608254</v>
+        <v>259348567</v>
       </c>
       <c r="F3" t="n">
-        <v>38133037</v>
+        <v>37065328</v>
       </c>
       <c r="G3" t="n">
-        <v>0.62</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2999.5</v>
+        <v>3003.37</v>
       </c>
       <c r="E4" t="n">
-        <v>268689492</v>
+        <v>325078248</v>
       </c>
       <c r="F4" t="n">
-        <v>37284527</v>
+        <v>45758152</v>
       </c>
       <c r="G4" t="n">
-        <v>0.62</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-10-25</t>
+          <t>2022-11-01</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,22 +562,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2976.28</v>
+        <v>2969.2</v>
       </c>
       <c r="E5" t="n">
-        <v>255554160</v>
+        <v>319809578</v>
       </c>
       <c r="F5" t="n">
-        <v>33751928</v>
+        <v>43101590</v>
       </c>
       <c r="G5" t="n">
-        <v>0.59</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-10-24</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2977.56</v>
+        <v>2893.48</v>
       </c>
       <c r="E6" t="n">
-        <v>298085356</v>
+        <v>301994203</v>
       </c>
       <c r="F6" t="n">
-        <v>39472594</v>
+        <v>39665416</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-10-21</t>
+          <t>2022-10-28</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3038.93</v>
+        <v>2915.93</v>
       </c>
       <c r="E7" t="n">
-        <v>245254122</v>
+        <v>292531308</v>
       </c>
       <c r="F7" t="n">
-        <v>31511099</v>
+        <v>38526136</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -649,22 +649,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3035.05</v>
+        <v>2982.9</v>
       </c>
       <c r="E8" t="n">
-        <v>244736145</v>
+        <v>265608254</v>
       </c>
       <c r="F8" t="n">
-        <v>34009134</v>
+        <v>38133037</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-10-19</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -678,22 +678,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3044.38</v>
+        <v>2999.5</v>
       </c>
       <c r="E9" t="n">
-        <v>230895310</v>
+        <v>268689492</v>
       </c>
       <c r="F9" t="n">
-        <v>31310835</v>
+        <v>37284527</v>
       </c>
       <c r="G9" t="n">
-        <v>0.53</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-10-18</t>
+          <t>2022-10-25</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3080.96</v>
+        <v>2976.28</v>
       </c>
       <c r="E10" t="n">
-        <v>245634757</v>
+        <v>255554160</v>
       </c>
       <c r="F10" t="n">
-        <v>32600291</v>
+        <v>33751928</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2022-10-24</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -736,22 +736,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3084.94</v>
+        <v>2977.56</v>
       </c>
       <c r="E11" t="n">
-        <v>262608618</v>
+        <v>298085356</v>
       </c>
       <c r="F11" t="n">
-        <v>34921447</v>
+        <v>39472594</v>
       </c>
       <c r="G11" t="n">
-        <v>0.61</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-10-14</t>
+          <t>2022-10-21</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3071.99</v>
+        <v>3038.93</v>
       </c>
       <c r="E12" t="n">
-        <v>277304061</v>
+        <v>245254122</v>
       </c>
       <c r="F12" t="n">
-        <v>37205069</v>
+        <v>31511099</v>
       </c>
       <c r="G12" t="n">
-        <v>0.65</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-10-13</t>
+          <t>2022-10-20</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -794,22 +794,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3016.36</v>
+        <v>3035.05</v>
       </c>
       <c r="E13" t="n">
-        <v>249683281</v>
+        <v>244736145</v>
       </c>
       <c r="F13" t="n">
-        <v>31776479</v>
+        <v>34009134</v>
       </c>
       <c r="G13" t="n">
-        <v>0.58</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-10-12</t>
+          <t>2022-10-19</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -823,22 +823,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3025.51</v>
+        <v>3044.38</v>
       </c>
       <c r="E14" t="n">
-        <v>248013557</v>
+        <v>230895310</v>
       </c>
       <c r="F14" t="n">
-        <v>30687133</v>
+        <v>31310835</v>
       </c>
       <c r="G14" t="n">
-        <v>0.58</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2022-10-11</t>
+          <t>2022-10-18</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -852,22 +852,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2979.79</v>
+        <v>3080.96</v>
       </c>
       <c r="E15" t="n">
-        <v>208635950</v>
+        <v>245634757</v>
       </c>
       <c r="F15" t="n">
-        <v>24671564</v>
+        <v>32600291</v>
       </c>
       <c r="G15" t="n">
-        <v>0.49</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2022-10-10</t>
+          <t>2022-10-17</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2974.15</v>
+        <v>3084.94</v>
       </c>
       <c r="E16" t="n">
-        <v>243404828</v>
+        <v>262608618</v>
       </c>
       <c r="F16" t="n">
-        <v>29012002</v>
+        <v>34921447</v>
       </c>
       <c r="G16" t="n">
-        <v>0.57</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2022-09-30</t>
+          <t>2022-10-14</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3024.39</v>
+        <v>3071.99</v>
       </c>
       <c r="E17" t="n">
-        <v>204115336</v>
+        <v>277304061</v>
       </c>
       <c r="F17" t="n">
-        <v>24026277</v>
+        <v>37205069</v>
       </c>
       <c r="G17" t="n">
-        <v>0.47</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2022-09-29</t>
+          <t>2022-10-13</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -939,22 +939,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3041.2</v>
+        <v>3016.36</v>
       </c>
       <c r="E18" t="n">
-        <v>230030416</v>
+        <v>249683281</v>
       </c>
       <c r="F18" t="n">
-        <v>27644100</v>
+        <v>31776479</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2022-09-28</t>
+          <t>2022-10-12</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -968,22 +968,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3045.07</v>
+        <v>3025.51</v>
       </c>
       <c r="E19" t="n">
-        <v>230098650</v>
+        <v>248013557</v>
       </c>
       <c r="F19" t="n">
-        <v>27604000</v>
+        <v>30687133</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2022-09-27</t>
+          <t>2022-10-11</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3093.86</v>
+        <v>2979.79</v>
       </c>
       <c r="E20" t="n">
-        <v>232735303</v>
+        <v>208635950</v>
       </c>
       <c r="F20" t="n">
-        <v>29006600</v>
+        <v>24671564</v>
       </c>
       <c r="G20" t="n">
-        <v>0.57</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2022-09-26</t>
+          <t>2022-10-10</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1026,16 +1026,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3051.23</v>
+        <v>2974.15</v>
       </c>
       <c r="E21" t="n">
-        <v>262698628</v>
+        <v>243404828</v>
       </c>
       <c r="F21" t="n">
-        <v>29353600</v>
+        <v>29012002</v>
       </c>
       <c r="G21" t="n">
-        <v>0.64</v>
+        <v>0.57</v>
       </c>
     </row>
   </sheetData>

--- a/gengxiang/data/sh000001.xlsx
+++ b/gengxiang/data/sh000001.xlsx
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-11-04</t>
+          <t>2022-11-07</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3070.8</v>
+        <v>3077.82</v>
       </c>
       <c r="E2" t="n">
-        <v>329806740</v>
+        <v>320567097</v>
       </c>
       <c r="F2" t="n">
-        <v>45877009</v>
+        <v>42442913</v>
       </c>
       <c r="G2" t="n">
-        <v>0.77</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2022-11-04</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2997.81</v>
+        <v>3070.8</v>
       </c>
       <c r="E3" t="n">
-        <v>259348567</v>
+        <v>329806740</v>
       </c>
       <c r="F3" t="n">
-        <v>37065328</v>
+        <v>45877009</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3003.37</v>
+        <v>2997.81</v>
       </c>
       <c r="E4" t="n">
-        <v>325078248</v>
+        <v>259348567</v>
       </c>
       <c r="F4" t="n">
-        <v>45758152</v>
+        <v>37065328</v>
       </c>
       <c r="G4" t="n">
-        <v>0.76</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-11-01</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,22 +562,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2969.2</v>
+        <v>3003.37</v>
       </c>
       <c r="E5" t="n">
-        <v>319809578</v>
+        <v>325078248</v>
       </c>
       <c r="F5" t="n">
-        <v>43101590</v>
+        <v>45758152</v>
       </c>
       <c r="G5" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2022-11-01</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2893.48</v>
+        <v>2969.2</v>
       </c>
       <c r="E6" t="n">
-        <v>301994203</v>
+        <v>319809578</v>
       </c>
       <c r="F6" t="n">
-        <v>39665416</v>
+        <v>43101590</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-10-28</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2915.93</v>
+        <v>2893.48</v>
       </c>
       <c r="E7" t="n">
-        <v>292531308</v>
+        <v>301994203</v>
       </c>
       <c r="F7" t="n">
-        <v>38526136</v>
+        <v>39665416</v>
       </c>
       <c r="G7" t="n">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2022-10-28</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -649,22 +649,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2982.9</v>
+        <v>2915.93</v>
       </c>
       <c r="E8" t="n">
-        <v>265608254</v>
+        <v>292531308</v>
       </c>
       <c r="F8" t="n">
-        <v>38133037</v>
+        <v>38526136</v>
       </c>
       <c r="G8" t="n">
-        <v>0.62</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -678,13 +678,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2999.5</v>
+        <v>2982.9</v>
       </c>
       <c r="E9" t="n">
-        <v>268689492</v>
+        <v>265608254</v>
       </c>
       <c r="F9" t="n">
-        <v>37284527</v>
+        <v>38133037</v>
       </c>
       <c r="G9" t="n">
         <v>0.62</v>
@@ -693,7 +693,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-10-25</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2976.28</v>
+        <v>2999.5</v>
       </c>
       <c r="E10" t="n">
-        <v>255554160</v>
+        <v>268689492</v>
       </c>
       <c r="F10" t="n">
-        <v>33751928</v>
+        <v>37284527</v>
       </c>
       <c r="G10" t="n">
-        <v>0.59</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-10-24</t>
+          <t>2022-10-25</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -736,22 +736,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2977.56</v>
+        <v>2976.28</v>
       </c>
       <c r="E11" t="n">
-        <v>298085356</v>
+        <v>255554160</v>
       </c>
       <c r="F11" t="n">
-        <v>39472594</v>
+        <v>33751928</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-10-21</t>
+          <t>2022-10-24</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3038.93</v>
+        <v>2977.56</v>
       </c>
       <c r="E12" t="n">
-        <v>245254122</v>
+        <v>298085356</v>
       </c>
       <c r="F12" t="n">
-        <v>31511099</v>
+        <v>39472594</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2022-10-21</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -794,13 +794,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3035.05</v>
+        <v>3038.93</v>
       </c>
       <c r="E13" t="n">
-        <v>244736145</v>
+        <v>245254122</v>
       </c>
       <c r="F13" t="n">
-        <v>34009134</v>
+        <v>31511099</v>
       </c>
       <c r="G13" t="n">
         <v>0.5600000000000001</v>
@@ -809,7 +809,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-10-19</t>
+          <t>2022-10-20</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -823,22 +823,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3044.38</v>
+        <v>3035.05</v>
       </c>
       <c r="E14" t="n">
-        <v>230895310</v>
+        <v>244736145</v>
       </c>
       <c r="F14" t="n">
-        <v>31310835</v>
+        <v>34009134</v>
       </c>
       <c r="G14" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2022-10-18</t>
+          <t>2022-10-19</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -852,22 +852,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3080.96</v>
+        <v>3044.38</v>
       </c>
       <c r="E15" t="n">
-        <v>245634757</v>
+        <v>230895310</v>
       </c>
       <c r="F15" t="n">
-        <v>32600291</v>
+        <v>31310835</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2022-10-18</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3084.94</v>
+        <v>3080.96</v>
       </c>
       <c r="E16" t="n">
-        <v>262608618</v>
+        <v>245634757</v>
       </c>
       <c r="F16" t="n">
-        <v>34921447</v>
+        <v>32600291</v>
       </c>
       <c r="G16" t="n">
-        <v>0.61</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2022-10-14</t>
+          <t>2022-10-17</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3071.99</v>
+        <v>3084.94</v>
       </c>
       <c r="E17" t="n">
-        <v>277304061</v>
+        <v>262608618</v>
       </c>
       <c r="F17" t="n">
-        <v>37205069</v>
+        <v>34921447</v>
       </c>
       <c r="G17" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2022-10-13</t>
+          <t>2022-10-14</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -939,22 +939,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3016.36</v>
+        <v>3071.99</v>
       </c>
       <c r="E18" t="n">
-        <v>249683281</v>
+        <v>277304061</v>
       </c>
       <c r="F18" t="n">
-        <v>31776479</v>
+        <v>37205069</v>
       </c>
       <c r="G18" t="n">
-        <v>0.58</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2022-10-12</t>
+          <t>2022-10-13</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -968,13 +968,13 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3025.51</v>
+        <v>3016.36</v>
       </c>
       <c r="E19" t="n">
-        <v>248013557</v>
+        <v>249683281</v>
       </c>
       <c r="F19" t="n">
-        <v>30687133</v>
+        <v>31776479</v>
       </c>
       <c r="G19" t="n">
         <v>0.58</v>
@@ -983,7 +983,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2022-10-11</t>
+          <t>2022-10-12</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2979.79</v>
+        <v>3025.51</v>
       </c>
       <c r="E20" t="n">
-        <v>208635950</v>
+        <v>248013557</v>
       </c>
       <c r="F20" t="n">
-        <v>24671564</v>
+        <v>30687133</v>
       </c>
       <c r="G20" t="n">
-        <v>0.49</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2022-10-10</t>
+          <t>2022-10-11</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1026,16 +1026,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2974.15</v>
+        <v>2979.79</v>
       </c>
       <c r="E21" t="n">
-        <v>243404828</v>
+        <v>208635950</v>
       </c>
       <c r="F21" t="n">
-        <v>29012002</v>
+        <v>24671564</v>
       </c>
       <c r="G21" t="n">
-        <v>0.57</v>
+        <v>0.49</v>
       </c>
     </row>
   </sheetData>

--- a/gengxiang/data/sh000001.xlsx
+++ b/gengxiang/data/sh000001.xlsx
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-11-07</t>
+          <t>2022-11-08</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3077.82</v>
+        <v>3064.49</v>
       </c>
       <c r="E2" t="n">
-        <v>320567097</v>
+        <v>256522007</v>
       </c>
       <c r="F2" t="n">
-        <v>42442913</v>
+        <v>33896694</v>
       </c>
       <c r="G2" t="n">
-        <v>0.74</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-11-04</t>
+          <t>2022-11-07</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3070.8</v>
+        <v>3077.82</v>
       </c>
       <c r="E3" t="n">
-        <v>329806740</v>
+        <v>320567097</v>
       </c>
       <c r="F3" t="n">
-        <v>45877009</v>
+        <v>42442913</v>
       </c>
       <c r="G3" t="n">
-        <v>0.77</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2022-11-04</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2997.81</v>
+        <v>3070.8</v>
       </c>
       <c r="E4" t="n">
-        <v>259348567</v>
+        <v>329806740</v>
       </c>
       <c r="F4" t="n">
-        <v>37065328</v>
+        <v>45877009</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,22 +562,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3003.37</v>
+        <v>2997.81</v>
       </c>
       <c r="E5" t="n">
-        <v>325078248</v>
+        <v>259348567</v>
       </c>
       <c r="F5" t="n">
-        <v>45758152</v>
+        <v>37065328</v>
       </c>
       <c r="G5" t="n">
-        <v>0.76</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-11-01</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2969.2</v>
+        <v>3003.37</v>
       </c>
       <c r="E6" t="n">
-        <v>319809578</v>
+        <v>325078248</v>
       </c>
       <c r="F6" t="n">
-        <v>43101590</v>
+        <v>45758152</v>
       </c>
       <c r="G6" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2022-11-01</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2893.48</v>
+        <v>2969.2</v>
       </c>
       <c r="E7" t="n">
-        <v>301994203</v>
+        <v>319809578</v>
       </c>
       <c r="F7" t="n">
-        <v>39665416</v>
+        <v>43101590</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-10-28</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -649,22 +649,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2915.93</v>
+        <v>2893.48</v>
       </c>
       <c r="E8" t="n">
-        <v>292531308</v>
+        <v>301994203</v>
       </c>
       <c r="F8" t="n">
-        <v>38526136</v>
+        <v>39665416</v>
       </c>
       <c r="G8" t="n">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2022-10-28</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -678,22 +678,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2982.9</v>
+        <v>2915.93</v>
       </c>
       <c r="E9" t="n">
-        <v>265608254</v>
+        <v>292531308</v>
       </c>
       <c r="F9" t="n">
-        <v>38133037</v>
+        <v>38526136</v>
       </c>
       <c r="G9" t="n">
-        <v>0.62</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -707,13 +707,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2999.5</v>
+        <v>2982.9</v>
       </c>
       <c r="E10" t="n">
-        <v>268689492</v>
+        <v>265608254</v>
       </c>
       <c r="F10" t="n">
-        <v>37284527</v>
+        <v>38133037</v>
       </c>
       <c r="G10" t="n">
         <v>0.62</v>
@@ -722,7 +722,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-10-25</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -736,22 +736,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2976.28</v>
+        <v>2999.5</v>
       </c>
       <c r="E11" t="n">
-        <v>255554160</v>
+        <v>268689492</v>
       </c>
       <c r="F11" t="n">
-        <v>33751928</v>
+        <v>37284527</v>
       </c>
       <c r="G11" t="n">
-        <v>0.59</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-10-24</t>
+          <t>2022-10-25</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2977.56</v>
+        <v>2976.28</v>
       </c>
       <c r="E12" t="n">
-        <v>298085356</v>
+        <v>255554160</v>
       </c>
       <c r="F12" t="n">
-        <v>39472594</v>
+        <v>33751928</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-10-21</t>
+          <t>2022-10-24</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -794,22 +794,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3038.93</v>
+        <v>2977.56</v>
       </c>
       <c r="E13" t="n">
-        <v>245254122</v>
+        <v>298085356</v>
       </c>
       <c r="F13" t="n">
-        <v>31511099</v>
+        <v>39472594</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2022-10-21</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -823,13 +823,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3035.05</v>
+        <v>3038.93</v>
       </c>
       <c r="E14" t="n">
-        <v>244736145</v>
+        <v>245254122</v>
       </c>
       <c r="F14" t="n">
-        <v>34009134</v>
+        <v>31511099</v>
       </c>
       <c r="G14" t="n">
         <v>0.5600000000000001</v>
@@ -838,7 +838,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2022-10-19</t>
+          <t>2022-10-20</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -852,22 +852,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3044.38</v>
+        <v>3035.05</v>
       </c>
       <c r="E15" t="n">
-        <v>230895310</v>
+        <v>244736145</v>
       </c>
       <c r="F15" t="n">
-        <v>31310835</v>
+        <v>34009134</v>
       </c>
       <c r="G15" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2022-10-18</t>
+          <t>2022-10-19</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3080.96</v>
+        <v>3044.38</v>
       </c>
       <c r="E16" t="n">
-        <v>245634757</v>
+        <v>230895310</v>
       </c>
       <c r="F16" t="n">
-        <v>32600291</v>
+        <v>31310835</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2022-10-18</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3084.94</v>
+        <v>3080.96</v>
       </c>
       <c r="E17" t="n">
-        <v>262608618</v>
+        <v>245634757</v>
       </c>
       <c r="F17" t="n">
-        <v>34921447</v>
+        <v>32600291</v>
       </c>
       <c r="G17" t="n">
-        <v>0.61</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2022-10-14</t>
+          <t>2022-10-17</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -939,22 +939,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3071.99</v>
+        <v>3084.94</v>
       </c>
       <c r="E18" t="n">
-        <v>277304061</v>
+        <v>262608618</v>
       </c>
       <c r="F18" t="n">
-        <v>37205069</v>
+        <v>34921447</v>
       </c>
       <c r="G18" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2022-10-13</t>
+          <t>2022-10-14</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -968,22 +968,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3016.36</v>
+        <v>3071.99</v>
       </c>
       <c r="E19" t="n">
-        <v>249683281</v>
+        <v>277304061</v>
       </c>
       <c r="F19" t="n">
-        <v>31776479</v>
+        <v>37205069</v>
       </c>
       <c r="G19" t="n">
-        <v>0.58</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2022-10-12</t>
+          <t>2022-10-13</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3025.51</v>
+        <v>3016.36</v>
       </c>
       <c r="E20" t="n">
-        <v>248013557</v>
+        <v>249683281</v>
       </c>
       <c r="F20" t="n">
-        <v>30687133</v>
+        <v>31776479</v>
       </c>
       <c r="G20" t="n">
         <v>0.58</v>
@@ -1012,7 +1012,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2022-10-11</t>
+          <t>2022-10-12</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1026,16 +1026,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2979.79</v>
+        <v>3025.51</v>
       </c>
       <c r="E21" t="n">
-        <v>208635950</v>
+        <v>248013557</v>
       </c>
       <c r="F21" t="n">
-        <v>24671564</v>
+        <v>30687133</v>
       </c>
       <c r="G21" t="n">
-        <v>0.49</v>
+        <v>0.58</v>
       </c>
     </row>
   </sheetData>

--- a/gengxiang/data/sh000001.xlsx
+++ b/gengxiang/data/sh000001.xlsx
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-11-08</t>
+          <t>2022-11-09</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3064.49</v>
+        <v>3048.17</v>
       </c>
       <c r="E2" t="n">
-        <v>256522007</v>
+        <v>235637324</v>
       </c>
       <c r="F2" t="n">
-        <v>33896694</v>
+        <v>30686090</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-11-07</t>
+          <t>2022-11-08</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3077.82</v>
+        <v>3064.49</v>
       </c>
       <c r="E3" t="n">
-        <v>320567097</v>
+        <v>256522007</v>
       </c>
       <c r="F3" t="n">
-        <v>42442913</v>
+        <v>33896694</v>
       </c>
       <c r="G3" t="n">
-        <v>0.74</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-11-04</t>
+          <t>2022-11-07</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3070.8</v>
+        <v>3077.82</v>
       </c>
       <c r="E4" t="n">
-        <v>329806740</v>
+        <v>320567097</v>
       </c>
       <c r="F4" t="n">
-        <v>45877009</v>
+        <v>42442913</v>
       </c>
       <c r="G4" t="n">
-        <v>0.77</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2022-11-04</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,22 +562,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2997.81</v>
+        <v>3070.8</v>
       </c>
       <c r="E5" t="n">
-        <v>259348567</v>
+        <v>329806740</v>
       </c>
       <c r="F5" t="n">
-        <v>37065328</v>
+        <v>45877009</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3003.37</v>
+        <v>2997.81</v>
       </c>
       <c r="E6" t="n">
-        <v>325078248</v>
+        <v>259348567</v>
       </c>
       <c r="F6" t="n">
-        <v>45758152</v>
+        <v>37065328</v>
       </c>
       <c r="G6" t="n">
-        <v>0.76</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-11-01</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2969.2</v>
+        <v>3003.37</v>
       </c>
       <c r="E7" t="n">
-        <v>319809578</v>
+        <v>325078248</v>
       </c>
       <c r="F7" t="n">
-        <v>43101590</v>
+        <v>45758152</v>
       </c>
       <c r="G7" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2022-11-01</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -649,22 +649,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2893.48</v>
+        <v>2969.2</v>
       </c>
       <c r="E8" t="n">
-        <v>301994203</v>
+        <v>319809578</v>
       </c>
       <c r="F8" t="n">
-        <v>39665416</v>
+        <v>43101590</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-10-28</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -678,22 +678,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2915.93</v>
+        <v>2893.48</v>
       </c>
       <c r="E9" t="n">
-        <v>292531308</v>
+        <v>301994203</v>
       </c>
       <c r="F9" t="n">
-        <v>38526136</v>
+        <v>39665416</v>
       </c>
       <c r="G9" t="n">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2022-10-28</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2982.9</v>
+        <v>2915.93</v>
       </c>
       <c r="E10" t="n">
-        <v>265608254</v>
+        <v>292531308</v>
       </c>
       <c r="F10" t="n">
-        <v>38133037</v>
+        <v>38526136</v>
       </c>
       <c r="G10" t="n">
-        <v>0.62</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -736,13 +736,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2999.5</v>
+        <v>2982.9</v>
       </c>
       <c r="E11" t="n">
-        <v>268689492</v>
+        <v>265608254</v>
       </c>
       <c r="F11" t="n">
-        <v>37284527</v>
+        <v>38133037</v>
       </c>
       <c r="G11" t="n">
         <v>0.62</v>
@@ -751,7 +751,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-10-25</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2976.28</v>
+        <v>2999.5</v>
       </c>
       <c r="E12" t="n">
-        <v>255554160</v>
+        <v>268689492</v>
       </c>
       <c r="F12" t="n">
-        <v>33751928</v>
+        <v>37284527</v>
       </c>
       <c r="G12" t="n">
-        <v>0.59</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-10-24</t>
+          <t>2022-10-25</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -794,22 +794,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2977.56</v>
+        <v>2976.28</v>
       </c>
       <c r="E13" t="n">
-        <v>298085356</v>
+        <v>255554160</v>
       </c>
       <c r="F13" t="n">
-        <v>39472594</v>
+        <v>33751928</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-10-21</t>
+          <t>2022-10-24</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -823,22 +823,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3038.93</v>
+        <v>2977.56</v>
       </c>
       <c r="E14" t="n">
-        <v>245254122</v>
+        <v>298085356</v>
       </c>
       <c r="F14" t="n">
-        <v>31511099</v>
+        <v>39472594</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2022-10-21</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3035.05</v>
+        <v>3038.93</v>
       </c>
       <c r="E15" t="n">
-        <v>244736145</v>
+        <v>245254122</v>
       </c>
       <c r="F15" t="n">
-        <v>34009134</v>
+        <v>31511099</v>
       </c>
       <c r="G15" t="n">
         <v>0.5600000000000001</v>
@@ -867,7 +867,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2022-10-19</t>
+          <t>2022-10-20</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3044.38</v>
+        <v>3035.05</v>
       </c>
       <c r="E16" t="n">
-        <v>230895310</v>
+        <v>244736145</v>
       </c>
       <c r="F16" t="n">
-        <v>31310835</v>
+        <v>34009134</v>
       </c>
       <c r="G16" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2022-10-18</t>
+          <t>2022-10-19</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3080.96</v>
+        <v>3044.38</v>
       </c>
       <c r="E17" t="n">
-        <v>245634757</v>
+        <v>230895310</v>
       </c>
       <c r="F17" t="n">
-        <v>32600291</v>
+        <v>31310835</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2022-10-18</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -939,22 +939,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3084.94</v>
+        <v>3080.96</v>
       </c>
       <c r="E18" t="n">
-        <v>262608618</v>
+        <v>245634757</v>
       </c>
       <c r="F18" t="n">
-        <v>34921447</v>
+        <v>32600291</v>
       </c>
       <c r="G18" t="n">
-        <v>0.61</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2022-10-14</t>
+          <t>2022-10-17</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -968,22 +968,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3071.99</v>
+        <v>3084.94</v>
       </c>
       <c r="E19" t="n">
-        <v>277304061</v>
+        <v>262608618</v>
       </c>
       <c r="F19" t="n">
-        <v>37205069</v>
+        <v>34921447</v>
       </c>
       <c r="G19" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2022-10-13</t>
+          <t>2022-10-14</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3016.36</v>
+        <v>3071.99</v>
       </c>
       <c r="E20" t="n">
-        <v>249683281</v>
+        <v>277304061</v>
       </c>
       <c r="F20" t="n">
-        <v>31776479</v>
+        <v>37205069</v>
       </c>
       <c r="G20" t="n">
-        <v>0.58</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2022-10-12</t>
+          <t>2022-10-13</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1026,13 +1026,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3025.51</v>
+        <v>3016.36</v>
       </c>
       <c r="E21" t="n">
-        <v>248013557</v>
+        <v>249683281</v>
       </c>
       <c r="F21" t="n">
-        <v>30687133</v>
+        <v>31776479</v>
       </c>
       <c r="G21" t="n">
         <v>0.58</v>

--- a/gengxiang/data/sh000001.xlsx
+++ b/gengxiang/data/sh000001.xlsx
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-11-09</t>
+          <t>2022-11-11</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3048.17</v>
+        <v>3087.29</v>
       </c>
       <c r="E2" t="n">
-        <v>235637324</v>
+        <v>409604534</v>
       </c>
       <c r="F2" t="n">
-        <v>30686090</v>
+        <v>51378460</v>
       </c>
       <c r="G2" t="n">
-        <v>0.54</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-11-08</t>
+          <t>2022-11-10</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3064.49</v>
+        <v>3036.13</v>
       </c>
       <c r="E3" t="n">
-        <v>256522007</v>
+        <v>270371798</v>
       </c>
       <c r="F3" t="n">
-        <v>33896694</v>
+        <v>33592592</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-11-07</t>
+          <t>2022-11-09</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3077.82</v>
+        <v>3048.17</v>
       </c>
       <c r="E4" t="n">
-        <v>320567097</v>
+        <v>235637324</v>
       </c>
       <c r="F4" t="n">
-        <v>42442913</v>
+        <v>30686090</v>
       </c>
       <c r="G4" t="n">
-        <v>0.74</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-11-04</t>
+          <t>2022-11-08</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,22 +562,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3070.8</v>
+        <v>3064.49</v>
       </c>
       <c r="E5" t="n">
-        <v>329806740</v>
+        <v>256522007</v>
       </c>
       <c r="F5" t="n">
-        <v>45877009</v>
+        <v>33896694</v>
       </c>
       <c r="G5" t="n">
-        <v>0.77</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2022-11-07</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2997.81</v>
+        <v>3077.82</v>
       </c>
       <c r="E6" t="n">
-        <v>259348567</v>
+        <v>320567097</v>
       </c>
       <c r="F6" t="n">
-        <v>37065328</v>
+        <v>42442913</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2022-11-04</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3003.37</v>
+        <v>3070.8</v>
       </c>
       <c r="E7" t="n">
-        <v>325078248</v>
+        <v>329806740</v>
       </c>
       <c r="F7" t="n">
-        <v>45758152</v>
+        <v>45877009</v>
       </c>
       <c r="G7" t="n">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-11-01</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -649,22 +649,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2969.2</v>
+        <v>2997.81</v>
       </c>
       <c r="E8" t="n">
-        <v>319809578</v>
+        <v>259348567</v>
       </c>
       <c r="F8" t="n">
-        <v>43101590</v>
+        <v>37065328</v>
       </c>
       <c r="G8" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -678,22 +678,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2893.48</v>
+        <v>3003.37</v>
       </c>
       <c r="E9" t="n">
-        <v>301994203</v>
+        <v>325078248</v>
       </c>
       <c r="F9" t="n">
-        <v>39665416</v>
+        <v>45758152</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-10-28</t>
+          <t>2022-11-01</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2915.93</v>
+        <v>2969.2</v>
       </c>
       <c r="E10" t="n">
-        <v>292531308</v>
+        <v>319809578</v>
       </c>
       <c r="F10" t="n">
-        <v>38526136</v>
+        <v>43101590</v>
       </c>
       <c r="G10" t="n">
-        <v>0.68</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -736,22 +736,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2982.9</v>
+        <v>2893.48</v>
       </c>
       <c r="E11" t="n">
-        <v>265608254</v>
+        <v>301994203</v>
       </c>
       <c r="F11" t="n">
-        <v>38133037</v>
+        <v>39665416</v>
       </c>
       <c r="G11" t="n">
-        <v>0.62</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-10-28</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2999.5</v>
+        <v>2915.93</v>
       </c>
       <c r="E12" t="n">
-        <v>268689492</v>
+        <v>292531308</v>
       </c>
       <c r="F12" t="n">
-        <v>37284527</v>
+        <v>38526136</v>
       </c>
       <c r="G12" t="n">
-        <v>0.62</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-10-25</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -794,22 +794,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2976.28</v>
+        <v>2982.9</v>
       </c>
       <c r="E13" t="n">
-        <v>255554160</v>
+        <v>265608254</v>
       </c>
       <c r="F13" t="n">
-        <v>33751928</v>
+        <v>38133037</v>
       </c>
       <c r="G13" t="n">
-        <v>0.59</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-10-24</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -823,22 +823,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2977.56</v>
+        <v>2999.5</v>
       </c>
       <c r="E14" t="n">
-        <v>298085356</v>
+        <v>268689492</v>
       </c>
       <c r="F14" t="n">
-        <v>39472594</v>
+        <v>37284527</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2022-10-21</t>
+          <t>2022-10-25</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -852,22 +852,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3038.93</v>
+        <v>2976.28</v>
       </c>
       <c r="E15" t="n">
-        <v>245254122</v>
+        <v>255554160</v>
       </c>
       <c r="F15" t="n">
-        <v>31511099</v>
+        <v>33751928</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2022-10-24</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3035.05</v>
+        <v>2977.56</v>
       </c>
       <c r="E16" t="n">
-        <v>244736145</v>
+        <v>298085356</v>
       </c>
       <c r="F16" t="n">
-        <v>34009134</v>
+        <v>39472594</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2022-10-19</t>
+          <t>2022-10-21</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3044.38</v>
+        <v>3038.93</v>
       </c>
       <c r="E17" t="n">
-        <v>230895310</v>
+        <v>245254122</v>
       </c>
       <c r="F17" t="n">
-        <v>31310835</v>
+        <v>31511099</v>
       </c>
       <c r="G17" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2022-10-18</t>
+          <t>2022-10-20</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -939,13 +939,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3080.96</v>
+        <v>3035.05</v>
       </c>
       <c r="E18" t="n">
-        <v>245634757</v>
+        <v>244736145</v>
       </c>
       <c r="F18" t="n">
-        <v>32600291</v>
+        <v>34009134</v>
       </c>
       <c r="G18" t="n">
         <v>0.5600000000000001</v>
@@ -954,7 +954,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2022-10-19</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -968,22 +968,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3084.94</v>
+        <v>3044.38</v>
       </c>
       <c r="E19" t="n">
-        <v>262608618</v>
+        <v>230895310</v>
       </c>
       <c r="F19" t="n">
-        <v>34921447</v>
+        <v>31310835</v>
       </c>
       <c r="G19" t="n">
-        <v>0.61</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2022-10-14</t>
+          <t>2022-10-18</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3071.99</v>
+        <v>3080.96</v>
       </c>
       <c r="E20" t="n">
-        <v>277304061</v>
+        <v>245634757</v>
       </c>
       <c r="F20" t="n">
-        <v>37205069</v>
+        <v>32600291</v>
       </c>
       <c r="G20" t="n">
-        <v>0.65</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2022-10-13</t>
+          <t>2022-10-17</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1026,16 +1026,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3016.36</v>
+        <v>3084.94</v>
       </c>
       <c r="E21" t="n">
-        <v>249683281</v>
+        <v>262608618</v>
       </c>
       <c r="F21" t="n">
-        <v>31776479</v>
+        <v>34921447</v>
       </c>
       <c r="G21" t="n">
-        <v>0.58</v>
+        <v>0.61</v>
       </c>
     </row>
   </sheetData>

--- a/gengxiang/data/sh000001.xlsx
+++ b/gengxiang/data/sh000001.xlsx
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-11-09</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3048.17</v>
+        <v>3134.08</v>
       </c>
       <c r="E2" t="n">
-        <v>235637324</v>
+        <v>331470577</v>
       </c>
       <c r="F2" t="n">
-        <v>30686090</v>
+        <v>44646001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.54</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-11-08</t>
+          <t>2022-11-14</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3064.49</v>
+        <v>3083.4</v>
       </c>
       <c r="E3" t="n">
-        <v>256522007</v>
+        <v>361788216</v>
       </c>
       <c r="F3" t="n">
-        <v>33896694</v>
+        <v>45454673</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-11-07</t>
+          <t>2022-11-11</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3077.82</v>
+        <v>3087.29</v>
       </c>
       <c r="E4" t="n">
-        <v>320567097</v>
+        <v>409604534</v>
       </c>
       <c r="F4" t="n">
-        <v>42442913</v>
+        <v>51378460</v>
       </c>
       <c r="G4" t="n">
-        <v>0.74</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-11-04</t>
+          <t>2022-11-10</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,22 +562,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3070.8</v>
+        <v>3036.13</v>
       </c>
       <c r="E5" t="n">
-        <v>329806740</v>
+        <v>270371798</v>
       </c>
       <c r="F5" t="n">
-        <v>45877009</v>
+        <v>33592592</v>
       </c>
       <c r="G5" t="n">
-        <v>0.77</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2022-11-09</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2997.81</v>
+        <v>3048.17</v>
       </c>
       <c r="E6" t="n">
-        <v>259348567</v>
+        <v>235637324</v>
       </c>
       <c r="F6" t="n">
-        <v>37065328</v>
+        <v>30686090</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2022-11-08</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3003.37</v>
+        <v>3064.49</v>
       </c>
       <c r="E7" t="n">
-        <v>325078248</v>
+        <v>256522007</v>
       </c>
       <c r="F7" t="n">
-        <v>45758152</v>
+        <v>33896694</v>
       </c>
       <c r="G7" t="n">
-        <v>0.76</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-11-01</t>
+          <t>2022-11-07</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -649,22 +649,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2969.2</v>
+        <v>3077.82</v>
       </c>
       <c r="E8" t="n">
-        <v>319809578</v>
+        <v>320567097</v>
       </c>
       <c r="F8" t="n">
-        <v>43101590</v>
+        <v>42442913</v>
       </c>
       <c r="G8" t="n">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2022-11-04</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -678,22 +678,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2893.48</v>
+        <v>3070.8</v>
       </c>
       <c r="E9" t="n">
-        <v>301994203</v>
+        <v>329806740</v>
       </c>
       <c r="F9" t="n">
-        <v>39665416</v>
+        <v>45877009</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-10-28</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2915.93</v>
+        <v>2997.81</v>
       </c>
       <c r="E10" t="n">
-        <v>292531308</v>
+        <v>259348567</v>
       </c>
       <c r="F10" t="n">
-        <v>38526136</v>
+        <v>37065328</v>
       </c>
       <c r="G10" t="n">
-        <v>0.68</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -736,22 +736,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2982.9</v>
+        <v>3003.37</v>
       </c>
       <c r="E11" t="n">
-        <v>265608254</v>
+        <v>325078248</v>
       </c>
       <c r="F11" t="n">
-        <v>38133037</v>
+        <v>45758152</v>
       </c>
       <c r="G11" t="n">
-        <v>0.62</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-11-01</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2999.5</v>
+        <v>2969.2</v>
       </c>
       <c r="E12" t="n">
-        <v>268689492</v>
+        <v>319809578</v>
       </c>
       <c r="F12" t="n">
-        <v>37284527</v>
+        <v>43101590</v>
       </c>
       <c r="G12" t="n">
-        <v>0.62</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-10-25</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -794,22 +794,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2976.28</v>
+        <v>2893.48</v>
       </c>
       <c r="E13" t="n">
-        <v>255554160</v>
+        <v>301994203</v>
       </c>
       <c r="F13" t="n">
-        <v>33751928</v>
+        <v>39665416</v>
       </c>
       <c r="G13" t="n">
-        <v>0.59</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-10-24</t>
+          <t>2022-10-28</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -823,22 +823,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2977.56</v>
+        <v>2915.93</v>
       </c>
       <c r="E14" t="n">
-        <v>298085356</v>
+        <v>292531308</v>
       </c>
       <c r="F14" t="n">
-        <v>39472594</v>
+        <v>38526136</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2022-10-21</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -852,22 +852,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3038.93</v>
+        <v>2982.9</v>
       </c>
       <c r="E15" t="n">
-        <v>245254122</v>
+        <v>265608254</v>
       </c>
       <c r="F15" t="n">
-        <v>31511099</v>
+        <v>38133037</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3035.05</v>
+        <v>2999.5</v>
       </c>
       <c r="E16" t="n">
-        <v>244736145</v>
+        <v>268689492</v>
       </c>
       <c r="F16" t="n">
-        <v>34009134</v>
+        <v>37284527</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2022-10-19</t>
+          <t>2022-10-25</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3044.38</v>
+        <v>2976.28</v>
       </c>
       <c r="E17" t="n">
-        <v>230895310</v>
+        <v>255554160</v>
       </c>
       <c r="F17" t="n">
-        <v>31310835</v>
+        <v>33751928</v>
       </c>
       <c r="G17" t="n">
-        <v>0.53</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2022-10-18</t>
+          <t>2022-10-24</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -939,22 +939,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3080.96</v>
+        <v>2977.56</v>
       </c>
       <c r="E18" t="n">
-        <v>245634757</v>
+        <v>298085356</v>
       </c>
       <c r="F18" t="n">
-        <v>32600291</v>
+        <v>39472594</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2022-10-21</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -968,22 +968,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3084.94</v>
+        <v>3038.93</v>
       </c>
       <c r="E19" t="n">
-        <v>262608618</v>
+        <v>245254122</v>
       </c>
       <c r="F19" t="n">
-        <v>34921447</v>
+        <v>31511099</v>
       </c>
       <c r="G19" t="n">
-        <v>0.61</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2022-10-14</t>
+          <t>2022-10-20</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3071.99</v>
+        <v>3035.05</v>
       </c>
       <c r="E20" t="n">
-        <v>277304061</v>
+        <v>244736145</v>
       </c>
       <c r="F20" t="n">
-        <v>37205069</v>
+        <v>34009134</v>
       </c>
       <c r="G20" t="n">
-        <v>0.65</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2022-10-13</t>
+          <t>2022-10-19</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1026,16 +1026,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3016.36</v>
+        <v>3044.38</v>
       </c>
       <c r="E21" t="n">
-        <v>249683281</v>
+        <v>230895310</v>
       </c>
       <c r="F21" t="n">
-        <v>31776479</v>
+        <v>31310835</v>
       </c>
       <c r="G21" t="n">
-        <v>0.58</v>
+        <v>0.53</v>
       </c>
     </row>
   </sheetData>

--- a/gengxiang/data/sh000001.xlsx
+++ b/gengxiang/data/sh000001.xlsx
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2022-11-16</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3134.08</v>
+        <v>3119.98</v>
       </c>
       <c r="E2" t="n">
-        <v>331470577</v>
+        <v>303429844</v>
       </c>
       <c r="F2" t="n">
-        <v>44646001</v>
+        <v>38699291</v>
       </c>
       <c r="G2" t="n">
-        <v>0.77</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-11-14</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3083.4</v>
+        <v>3134.08</v>
       </c>
       <c r="E3" t="n">
-        <v>361788216</v>
+        <v>331470577</v>
       </c>
       <c r="F3" t="n">
-        <v>45454673</v>
+        <v>44646001</v>
       </c>
       <c r="G3" t="n">
-        <v>0.85</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-11-11</t>
+          <t>2022-11-14</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3087.29</v>
+        <v>3083.4</v>
       </c>
       <c r="E4" t="n">
-        <v>409604534</v>
+        <v>361788216</v>
       </c>
       <c r="F4" t="n">
-        <v>51378460</v>
+        <v>45454673</v>
       </c>
       <c r="G4" t="n">
-        <v>0.95</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-11-10</t>
+          <t>2022-11-11</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,22 +562,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3036.13</v>
+        <v>3087.29</v>
       </c>
       <c r="E5" t="n">
-        <v>270371798</v>
+        <v>409604534</v>
       </c>
       <c r="F5" t="n">
-        <v>33592592</v>
+        <v>51378460</v>
       </c>
       <c r="G5" t="n">
-        <v>0.62</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-11-09</t>
+          <t>2022-11-10</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3048.17</v>
+        <v>3036.13</v>
       </c>
       <c r="E6" t="n">
-        <v>235637324</v>
+        <v>270371798</v>
       </c>
       <c r="F6" t="n">
-        <v>30686090</v>
+        <v>33592592</v>
       </c>
       <c r="G6" t="n">
-        <v>0.54</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-11-08</t>
+          <t>2022-11-09</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3064.49</v>
+        <v>3048.17</v>
       </c>
       <c r="E7" t="n">
-        <v>256522007</v>
+        <v>235637324</v>
       </c>
       <c r="F7" t="n">
-        <v>33896694</v>
+        <v>30686090</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-11-07</t>
+          <t>2022-11-08</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -649,22 +649,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3077.82</v>
+        <v>3064.49</v>
       </c>
       <c r="E8" t="n">
-        <v>320567097</v>
+        <v>256522007</v>
       </c>
       <c r="F8" t="n">
-        <v>42442913</v>
+        <v>33896694</v>
       </c>
       <c r="G8" t="n">
-        <v>0.74</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-11-04</t>
+          <t>2022-11-07</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -678,22 +678,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3070.8</v>
+        <v>3077.82</v>
       </c>
       <c r="E9" t="n">
-        <v>329806740</v>
+        <v>320567097</v>
       </c>
       <c r="F9" t="n">
-        <v>45877009</v>
+        <v>42442913</v>
       </c>
       <c r="G9" t="n">
-        <v>0.77</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2022-11-04</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2997.81</v>
+        <v>3070.8</v>
       </c>
       <c r="E10" t="n">
-        <v>259348567</v>
+        <v>329806740</v>
       </c>
       <c r="F10" t="n">
-        <v>37065328</v>
+        <v>45877009</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -736,22 +736,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3003.37</v>
+        <v>2997.81</v>
       </c>
       <c r="E11" t="n">
-        <v>325078248</v>
+        <v>259348567</v>
       </c>
       <c r="F11" t="n">
-        <v>45758152</v>
+        <v>37065328</v>
       </c>
       <c r="G11" t="n">
-        <v>0.76</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-11-01</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2969.2</v>
+        <v>3003.37</v>
       </c>
       <c r="E12" t="n">
-        <v>319809578</v>
+        <v>325078248</v>
       </c>
       <c r="F12" t="n">
-        <v>43101590</v>
+        <v>45758152</v>
       </c>
       <c r="G12" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2022-11-01</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -794,22 +794,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2893.48</v>
+        <v>2969.2</v>
       </c>
       <c r="E13" t="n">
-        <v>301994203</v>
+        <v>319809578</v>
       </c>
       <c r="F13" t="n">
-        <v>39665416</v>
+        <v>43101590</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-10-28</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -823,22 +823,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2915.93</v>
+        <v>2893.48</v>
       </c>
       <c r="E14" t="n">
-        <v>292531308</v>
+        <v>301994203</v>
       </c>
       <c r="F14" t="n">
-        <v>38526136</v>
+        <v>39665416</v>
       </c>
       <c r="G14" t="n">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2022-10-28</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -852,22 +852,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2982.9</v>
+        <v>2915.93</v>
       </c>
       <c r="E15" t="n">
-        <v>265608254</v>
+        <v>292531308</v>
       </c>
       <c r="F15" t="n">
-        <v>38133037</v>
+        <v>38526136</v>
       </c>
       <c r="G15" t="n">
-        <v>0.62</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -881,13 +881,13 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2999.5</v>
+        <v>2982.9</v>
       </c>
       <c r="E16" t="n">
-        <v>268689492</v>
+        <v>265608254</v>
       </c>
       <c r="F16" t="n">
-        <v>37284527</v>
+        <v>38133037</v>
       </c>
       <c r="G16" t="n">
         <v>0.62</v>
@@ -896,7 +896,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2022-10-25</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2976.28</v>
+        <v>2999.5</v>
       </c>
       <c r="E17" t="n">
-        <v>255554160</v>
+        <v>268689492</v>
       </c>
       <c r="F17" t="n">
-        <v>33751928</v>
+        <v>37284527</v>
       </c>
       <c r="G17" t="n">
-        <v>0.59</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2022-10-24</t>
+          <t>2022-10-25</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -939,22 +939,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2977.56</v>
+        <v>2976.28</v>
       </c>
       <c r="E18" t="n">
-        <v>298085356</v>
+        <v>255554160</v>
       </c>
       <c r="F18" t="n">
-        <v>39472594</v>
+        <v>33751928</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2022-10-21</t>
+          <t>2022-10-24</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -968,22 +968,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3038.93</v>
+        <v>2977.56</v>
       </c>
       <c r="E19" t="n">
-        <v>245254122</v>
+        <v>298085356</v>
       </c>
       <c r="F19" t="n">
-        <v>31511099</v>
+        <v>39472594</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2022-10-21</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3035.05</v>
+        <v>3038.93</v>
       </c>
       <c r="E20" t="n">
-        <v>244736145</v>
+        <v>245254122</v>
       </c>
       <c r="F20" t="n">
-        <v>34009134</v>
+        <v>31511099</v>
       </c>
       <c r="G20" t="n">
         <v>0.5600000000000001</v>
@@ -1012,7 +1012,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2022-10-19</t>
+          <t>2022-10-20</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1026,16 +1026,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3044.38</v>
+        <v>3035.05</v>
       </c>
       <c r="E21" t="n">
-        <v>230895310</v>
+        <v>244736145</v>
       </c>
       <c r="F21" t="n">
-        <v>31310835</v>
+        <v>34009134</v>
       </c>
       <c r="G21" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/gengxiang/data/sh000001.xlsx
+++ b/gengxiang/data/sh000001.xlsx
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-11-16</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3119.98</v>
+        <v>3115.43</v>
       </c>
       <c r="E2" t="n">
-        <v>303429844</v>
+        <v>287028407</v>
       </c>
       <c r="F2" t="n">
-        <v>38699291</v>
+        <v>37790011</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2022-11-16</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3134.08</v>
+        <v>3119.98</v>
       </c>
       <c r="E3" t="n">
-        <v>331470577</v>
+        <v>303429844</v>
       </c>
       <c r="F3" t="n">
-        <v>44646001</v>
+        <v>38699291</v>
       </c>
       <c r="G3" t="n">
-        <v>0.77</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-11-14</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3083.4</v>
+        <v>3134.08</v>
       </c>
       <c r="E4" t="n">
-        <v>361788216</v>
+        <v>331470577</v>
       </c>
       <c r="F4" t="n">
-        <v>45454673</v>
+        <v>44646001</v>
       </c>
       <c r="G4" t="n">
-        <v>0.85</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-11-11</t>
+          <t>2022-11-14</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,22 +562,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3087.29</v>
+        <v>3083.4</v>
       </c>
       <c r="E5" t="n">
-        <v>409604534</v>
+        <v>361788216</v>
       </c>
       <c r="F5" t="n">
-        <v>51378460</v>
+        <v>45454673</v>
       </c>
       <c r="G5" t="n">
-        <v>0.95</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-11-10</t>
+          <t>2022-11-11</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3036.13</v>
+        <v>3087.29</v>
       </c>
       <c r="E6" t="n">
-        <v>270371798</v>
+        <v>409604534</v>
       </c>
       <c r="F6" t="n">
-        <v>33592592</v>
+        <v>51378460</v>
       </c>
       <c r="G6" t="n">
-        <v>0.62</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-11-09</t>
+          <t>2022-11-10</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3048.17</v>
+        <v>3036.13</v>
       </c>
       <c r="E7" t="n">
-        <v>235637324</v>
+        <v>270371798</v>
       </c>
       <c r="F7" t="n">
-        <v>30686090</v>
+        <v>33592592</v>
       </c>
       <c r="G7" t="n">
-        <v>0.54</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-11-08</t>
+          <t>2022-11-09</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -649,22 +649,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3064.49</v>
+        <v>3048.17</v>
       </c>
       <c r="E8" t="n">
-        <v>256522007</v>
+        <v>235637324</v>
       </c>
       <c r="F8" t="n">
-        <v>33896694</v>
+        <v>30686090</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-11-07</t>
+          <t>2022-11-08</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -678,22 +678,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3077.82</v>
+        <v>3064.49</v>
       </c>
       <c r="E9" t="n">
-        <v>320567097</v>
+        <v>256522007</v>
       </c>
       <c r="F9" t="n">
-        <v>42442913</v>
+        <v>33896694</v>
       </c>
       <c r="G9" t="n">
-        <v>0.74</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-11-04</t>
+          <t>2022-11-07</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3070.8</v>
+        <v>3077.82</v>
       </c>
       <c r="E10" t="n">
-        <v>329806740</v>
+        <v>320567097</v>
       </c>
       <c r="F10" t="n">
-        <v>45877009</v>
+        <v>42442913</v>
       </c>
       <c r="G10" t="n">
-        <v>0.77</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2022-11-04</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -736,22 +736,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2997.81</v>
+        <v>3070.8</v>
       </c>
       <c r="E11" t="n">
-        <v>259348567</v>
+        <v>329806740</v>
       </c>
       <c r="F11" t="n">
-        <v>37065328</v>
+        <v>45877009</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3003.37</v>
+        <v>2997.81</v>
       </c>
       <c r="E12" t="n">
-        <v>325078248</v>
+        <v>259348567</v>
       </c>
       <c r="F12" t="n">
-        <v>45758152</v>
+        <v>37065328</v>
       </c>
       <c r="G12" t="n">
-        <v>0.76</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-11-01</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -794,22 +794,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2969.2</v>
+        <v>3003.37</v>
       </c>
       <c r="E13" t="n">
-        <v>319809578</v>
+        <v>325078248</v>
       </c>
       <c r="F13" t="n">
-        <v>43101590</v>
+        <v>45758152</v>
       </c>
       <c r="G13" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2022-11-01</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -823,22 +823,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2893.48</v>
+        <v>2969.2</v>
       </c>
       <c r="E14" t="n">
-        <v>301994203</v>
+        <v>319809578</v>
       </c>
       <c r="F14" t="n">
-        <v>39665416</v>
+        <v>43101590</v>
       </c>
       <c r="G14" t="n">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2022-10-28</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -852,22 +852,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2915.93</v>
+        <v>2893.48</v>
       </c>
       <c r="E15" t="n">
-        <v>292531308</v>
+        <v>301994203</v>
       </c>
       <c r="F15" t="n">
-        <v>38526136</v>
+        <v>39665416</v>
       </c>
       <c r="G15" t="n">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2022-10-28</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2982.9</v>
+        <v>2915.93</v>
       </c>
       <c r="E16" t="n">
-        <v>265608254</v>
+        <v>292531308</v>
       </c>
       <c r="F16" t="n">
-        <v>38133037</v>
+        <v>38526136</v>
       </c>
       <c r="G16" t="n">
-        <v>0.62</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2999.5</v>
+        <v>2982.9</v>
       </c>
       <c r="E17" t="n">
-        <v>268689492</v>
+        <v>265608254</v>
       </c>
       <c r="F17" t="n">
-        <v>37284527</v>
+        <v>38133037</v>
       </c>
       <c r="G17" t="n">
         <v>0.62</v>
@@ -925,7 +925,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2022-10-25</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -939,22 +939,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2976.28</v>
+        <v>2999.5</v>
       </c>
       <c r="E18" t="n">
-        <v>255554160</v>
+        <v>268689492</v>
       </c>
       <c r="F18" t="n">
-        <v>33751928</v>
+        <v>37284527</v>
       </c>
       <c r="G18" t="n">
-        <v>0.59</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2022-10-24</t>
+          <t>2022-10-25</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -968,22 +968,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2977.56</v>
+        <v>2976.28</v>
       </c>
       <c r="E19" t="n">
-        <v>298085356</v>
+        <v>255554160</v>
       </c>
       <c r="F19" t="n">
-        <v>39472594</v>
+        <v>33751928</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2022-10-21</t>
+          <t>2022-10-24</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3038.93</v>
+        <v>2977.56</v>
       </c>
       <c r="E20" t="n">
-        <v>245254122</v>
+        <v>298085356</v>
       </c>
       <c r="F20" t="n">
-        <v>31511099</v>
+        <v>39472594</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2022-10-21</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1026,13 +1026,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3035.05</v>
+        <v>3038.93</v>
       </c>
       <c r="E21" t="n">
-        <v>244736145</v>
+        <v>245254122</v>
       </c>
       <c r="F21" t="n">
-        <v>34009134</v>
+        <v>31511099</v>
       </c>
       <c r="G21" t="n">
         <v>0.5600000000000001</v>

--- a/gengxiang/data/sh000001.xlsx
+++ b/gengxiang/data/sh000001.xlsx
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2022-11-18</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3115.43</v>
+        <v>3097.24</v>
       </c>
       <c r="E2" t="n">
-        <v>287028407</v>
+        <v>299954276</v>
       </c>
       <c r="F2" t="n">
-        <v>37790011</v>
+        <v>38920739</v>
       </c>
       <c r="G2" t="n">
-        <v>0.66</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-11-16</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3119.98</v>
+        <v>3115.43</v>
       </c>
       <c r="E3" t="n">
-        <v>303429844</v>
+        <v>287028407</v>
       </c>
       <c r="F3" t="n">
-        <v>38699291</v>
+        <v>37790011</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2022-11-16</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3134.08</v>
+        <v>3119.98</v>
       </c>
       <c r="E4" t="n">
-        <v>331470577</v>
+        <v>303429844</v>
       </c>
       <c r="F4" t="n">
-        <v>44646001</v>
+        <v>38699291</v>
       </c>
       <c r="G4" t="n">
-        <v>0.77</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-11-14</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,22 +562,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3083.4</v>
+        <v>3134.08</v>
       </c>
       <c r="E5" t="n">
-        <v>361788216</v>
+        <v>331470577</v>
       </c>
       <c r="F5" t="n">
-        <v>45454673</v>
+        <v>44646001</v>
       </c>
       <c r="G5" t="n">
-        <v>0.85</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-11-11</t>
+          <t>2022-11-14</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3087.29</v>
+        <v>3083.4</v>
       </c>
       <c r="E6" t="n">
-        <v>409604534</v>
+        <v>361788216</v>
       </c>
       <c r="F6" t="n">
-        <v>51378460</v>
+        <v>45454673</v>
       </c>
       <c r="G6" t="n">
-        <v>0.95</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-11-10</t>
+          <t>2022-11-11</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3036.13</v>
+        <v>3087.29</v>
       </c>
       <c r="E7" t="n">
-        <v>270371798</v>
+        <v>409604534</v>
       </c>
       <c r="F7" t="n">
-        <v>33592592</v>
+        <v>51378460</v>
       </c>
       <c r="G7" t="n">
-        <v>0.62</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-11-09</t>
+          <t>2022-11-10</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -649,22 +649,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3048.17</v>
+        <v>3036.13</v>
       </c>
       <c r="E8" t="n">
-        <v>235637324</v>
+        <v>270371798</v>
       </c>
       <c r="F8" t="n">
-        <v>30686090</v>
+        <v>33592592</v>
       </c>
       <c r="G8" t="n">
-        <v>0.54</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-11-08</t>
+          <t>2022-11-09</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -678,22 +678,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3064.49</v>
+        <v>3048.17</v>
       </c>
       <c r="E9" t="n">
-        <v>256522007</v>
+        <v>235637324</v>
       </c>
       <c r="F9" t="n">
-        <v>33896694</v>
+        <v>30686090</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-11-07</t>
+          <t>2022-11-08</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3077.82</v>
+        <v>3064.49</v>
       </c>
       <c r="E10" t="n">
-        <v>320567097</v>
+        <v>256522007</v>
       </c>
       <c r="F10" t="n">
-        <v>42442913</v>
+        <v>33896694</v>
       </c>
       <c r="G10" t="n">
-        <v>0.74</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-11-04</t>
+          <t>2022-11-07</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -736,22 +736,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3070.8</v>
+        <v>3077.82</v>
       </c>
       <c r="E11" t="n">
-        <v>329806740</v>
+        <v>320567097</v>
       </c>
       <c r="F11" t="n">
-        <v>45877009</v>
+        <v>42442913</v>
       </c>
       <c r="G11" t="n">
-        <v>0.77</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2022-11-04</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2997.81</v>
+        <v>3070.8</v>
       </c>
       <c r="E12" t="n">
-        <v>259348567</v>
+        <v>329806740</v>
       </c>
       <c r="F12" t="n">
-        <v>37065328</v>
+        <v>45877009</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -794,22 +794,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3003.37</v>
+        <v>2997.81</v>
       </c>
       <c r="E13" t="n">
-        <v>325078248</v>
+        <v>259348567</v>
       </c>
       <c r="F13" t="n">
-        <v>45758152</v>
+        <v>37065328</v>
       </c>
       <c r="G13" t="n">
-        <v>0.76</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-11-01</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -823,22 +823,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2969.2</v>
+        <v>3003.37</v>
       </c>
       <c r="E14" t="n">
-        <v>319809578</v>
+        <v>325078248</v>
       </c>
       <c r="F14" t="n">
-        <v>43101590</v>
+        <v>45758152</v>
       </c>
       <c r="G14" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2022-11-01</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -852,22 +852,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2893.48</v>
+        <v>2969.2</v>
       </c>
       <c r="E15" t="n">
-        <v>301994203</v>
+        <v>319809578</v>
       </c>
       <c r="F15" t="n">
-        <v>39665416</v>
+        <v>43101590</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2022-10-28</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2915.93</v>
+        <v>2893.48</v>
       </c>
       <c r="E16" t="n">
-        <v>292531308</v>
+        <v>301994203</v>
       </c>
       <c r="F16" t="n">
-        <v>38526136</v>
+        <v>39665416</v>
       </c>
       <c r="G16" t="n">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2022-10-28</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2982.9</v>
+        <v>2915.93</v>
       </c>
       <c r="E17" t="n">
-        <v>265608254</v>
+        <v>292531308</v>
       </c>
       <c r="F17" t="n">
-        <v>38133037</v>
+        <v>38526136</v>
       </c>
       <c r="G17" t="n">
-        <v>0.62</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -939,13 +939,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2999.5</v>
+        <v>2982.9</v>
       </c>
       <c r="E18" t="n">
-        <v>268689492</v>
+        <v>265608254</v>
       </c>
       <c r="F18" t="n">
-        <v>37284527</v>
+        <v>38133037</v>
       </c>
       <c r="G18" t="n">
         <v>0.62</v>
@@ -954,7 +954,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2022-10-25</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -968,22 +968,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2976.28</v>
+        <v>2999.5</v>
       </c>
       <c r="E19" t="n">
-        <v>255554160</v>
+        <v>268689492</v>
       </c>
       <c r="F19" t="n">
-        <v>33751928</v>
+        <v>37284527</v>
       </c>
       <c r="G19" t="n">
-        <v>0.59</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2022-10-24</t>
+          <t>2022-10-25</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2977.56</v>
+        <v>2976.28</v>
       </c>
       <c r="E20" t="n">
-        <v>298085356</v>
+        <v>255554160</v>
       </c>
       <c r="F20" t="n">
-        <v>39472594</v>
+        <v>33751928</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2022-10-21</t>
+          <t>2022-10-24</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1026,16 +1026,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3038.93</v>
+        <v>2977.56</v>
       </c>
       <c r="E21" t="n">
-        <v>245254122</v>
+        <v>298085356</v>
       </c>
       <c r="F21" t="n">
-        <v>31511099</v>
+        <v>39472594</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/gengxiang/data/sh000001.xlsx
+++ b/gengxiang/data/sh000001.xlsx
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-11-18</t>
+          <t>2022-11-21</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3097.24</v>
+        <v>3085.04</v>
       </c>
       <c r="E2" t="n">
-        <v>299954276</v>
+        <v>256045549</v>
       </c>
       <c r="F2" t="n">
-        <v>38920739</v>
+        <v>34502550</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2022-11-18</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3115.43</v>
+        <v>3097.24</v>
       </c>
       <c r="E3" t="n">
-        <v>287028407</v>
+        <v>299954276</v>
       </c>
       <c r="F3" t="n">
-        <v>37790011</v>
+        <v>38920739</v>
       </c>
       <c r="G3" t="n">
-        <v>0.66</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-11-16</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3119.98</v>
+        <v>3115.43</v>
       </c>
       <c r="E4" t="n">
-        <v>303429844</v>
+        <v>287028407</v>
       </c>
       <c r="F4" t="n">
-        <v>38699291</v>
+        <v>37790011</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2022-11-16</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,22 +562,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3134.08</v>
+        <v>3119.98</v>
       </c>
       <c r="E5" t="n">
-        <v>331470577</v>
+        <v>303429844</v>
       </c>
       <c r="F5" t="n">
-        <v>44646001</v>
+        <v>38699291</v>
       </c>
       <c r="G5" t="n">
-        <v>0.77</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-11-14</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3083.4</v>
+        <v>3134.08</v>
       </c>
       <c r="E6" t="n">
-        <v>361788216</v>
+        <v>331470577</v>
       </c>
       <c r="F6" t="n">
-        <v>45454673</v>
+        <v>44646001</v>
       </c>
       <c r="G6" t="n">
-        <v>0.85</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-11-11</t>
+          <t>2022-11-14</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3087.29</v>
+        <v>3083.4</v>
       </c>
       <c r="E7" t="n">
-        <v>409604534</v>
+        <v>361788216</v>
       </c>
       <c r="F7" t="n">
-        <v>51378460</v>
+        <v>45454673</v>
       </c>
       <c r="G7" t="n">
-        <v>0.95</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-11-10</t>
+          <t>2022-11-11</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -649,22 +649,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3036.13</v>
+        <v>3087.29</v>
       </c>
       <c r="E8" t="n">
-        <v>270371798</v>
+        <v>409604534</v>
       </c>
       <c r="F8" t="n">
-        <v>33592592</v>
+        <v>51378460</v>
       </c>
       <c r="G8" t="n">
-        <v>0.62</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-11-09</t>
+          <t>2022-11-10</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -678,22 +678,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3048.17</v>
+        <v>3036.13</v>
       </c>
       <c r="E9" t="n">
-        <v>235637324</v>
+        <v>270371798</v>
       </c>
       <c r="F9" t="n">
-        <v>30686090</v>
+        <v>33592592</v>
       </c>
       <c r="G9" t="n">
-        <v>0.54</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-11-08</t>
+          <t>2022-11-09</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3064.49</v>
+        <v>3048.17</v>
       </c>
       <c r="E10" t="n">
-        <v>256522007</v>
+        <v>235637324</v>
       </c>
       <c r="F10" t="n">
-        <v>33896694</v>
+        <v>30686090</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-11-07</t>
+          <t>2022-11-08</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -736,22 +736,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3077.82</v>
+        <v>3064.49</v>
       </c>
       <c r="E11" t="n">
-        <v>320567097</v>
+        <v>256522007</v>
       </c>
       <c r="F11" t="n">
-        <v>42442913</v>
+        <v>33896694</v>
       </c>
       <c r="G11" t="n">
-        <v>0.74</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-11-04</t>
+          <t>2022-11-07</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3070.8</v>
+        <v>3077.82</v>
       </c>
       <c r="E12" t="n">
-        <v>329806740</v>
+        <v>320567097</v>
       </c>
       <c r="F12" t="n">
-        <v>45877009</v>
+        <v>42442913</v>
       </c>
       <c r="G12" t="n">
-        <v>0.77</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2022-11-04</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -794,22 +794,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2997.81</v>
+        <v>3070.8</v>
       </c>
       <c r="E13" t="n">
-        <v>259348567</v>
+        <v>329806740</v>
       </c>
       <c r="F13" t="n">
-        <v>37065328</v>
+        <v>45877009</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -823,22 +823,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3003.37</v>
+        <v>2997.81</v>
       </c>
       <c r="E14" t="n">
-        <v>325078248</v>
+        <v>259348567</v>
       </c>
       <c r="F14" t="n">
-        <v>45758152</v>
+        <v>37065328</v>
       </c>
       <c r="G14" t="n">
-        <v>0.76</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2022-11-01</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -852,22 +852,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2969.2</v>
+        <v>3003.37</v>
       </c>
       <c r="E15" t="n">
-        <v>319809578</v>
+        <v>325078248</v>
       </c>
       <c r="F15" t="n">
-        <v>43101590</v>
+        <v>45758152</v>
       </c>
       <c r="G15" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2022-11-01</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2893.48</v>
+        <v>2969.2</v>
       </c>
       <c r="E16" t="n">
-        <v>301994203</v>
+        <v>319809578</v>
       </c>
       <c r="F16" t="n">
-        <v>39665416</v>
+        <v>43101590</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2022-10-28</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2915.93</v>
+        <v>2893.48</v>
       </c>
       <c r="E17" t="n">
-        <v>292531308</v>
+        <v>301994203</v>
       </c>
       <c r="F17" t="n">
-        <v>38526136</v>
+        <v>39665416</v>
       </c>
       <c r="G17" t="n">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2022-10-28</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -939,22 +939,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2982.9</v>
+        <v>2915.93</v>
       </c>
       <c r="E18" t="n">
-        <v>265608254</v>
+        <v>292531308</v>
       </c>
       <c r="F18" t="n">
-        <v>38133037</v>
+        <v>38526136</v>
       </c>
       <c r="G18" t="n">
-        <v>0.62</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -968,13 +968,13 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2999.5</v>
+        <v>2982.9</v>
       </c>
       <c r="E19" t="n">
-        <v>268689492</v>
+        <v>265608254</v>
       </c>
       <c r="F19" t="n">
-        <v>37284527</v>
+        <v>38133037</v>
       </c>
       <c r="G19" t="n">
         <v>0.62</v>
@@ -983,7 +983,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2022-10-25</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2976.28</v>
+        <v>2999.5</v>
       </c>
       <c r="E20" t="n">
-        <v>255554160</v>
+        <v>268689492</v>
       </c>
       <c r="F20" t="n">
-        <v>33751928</v>
+        <v>37284527</v>
       </c>
       <c r="G20" t="n">
-        <v>0.59</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2022-10-24</t>
+          <t>2022-10-25</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1026,16 +1026,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2977.56</v>
+        <v>2976.28</v>
       </c>
       <c r="E21" t="n">
-        <v>298085356</v>
+        <v>255554160</v>
       </c>
       <c r="F21" t="n">
-        <v>39472594</v>
+        <v>33751928</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.59</v>
       </c>
     </row>
   </sheetData>

--- a/gengxiang/data/sh000001.xlsx
+++ b/gengxiang/data/sh000001.xlsx
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-11-21</t>
+          <t>2022-11-22</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3085.04</v>
+        <v>3088.94</v>
       </c>
       <c r="E2" t="n">
-        <v>256045549</v>
+        <v>327565927</v>
       </c>
       <c r="F2" t="n">
-        <v>34502550</v>
+        <v>37414282</v>
       </c>
       <c r="G2" t="n">
-        <v>0.59</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-11-18</t>
+          <t>2022-11-21</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3097.24</v>
+        <v>3085.04</v>
       </c>
       <c r="E3" t="n">
-        <v>299954276</v>
+        <v>256045549</v>
       </c>
       <c r="F3" t="n">
-        <v>38920739</v>
+        <v>34502550</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2022-11-18</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3115.43</v>
+        <v>3097.24</v>
       </c>
       <c r="E4" t="n">
-        <v>287028407</v>
+        <v>299954276</v>
       </c>
       <c r="F4" t="n">
-        <v>37790011</v>
+        <v>38920739</v>
       </c>
       <c r="G4" t="n">
-        <v>0.66</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-11-16</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,22 +562,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3119.98</v>
+        <v>3115.43</v>
       </c>
       <c r="E5" t="n">
-        <v>303429844</v>
+        <v>287028407</v>
       </c>
       <c r="F5" t="n">
-        <v>38699291</v>
+        <v>37790011</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2022-11-16</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3134.08</v>
+        <v>3119.98</v>
       </c>
       <c r="E6" t="n">
-        <v>331470577</v>
+        <v>303429844</v>
       </c>
       <c r="F6" t="n">
-        <v>44646001</v>
+        <v>38699291</v>
       </c>
       <c r="G6" t="n">
-        <v>0.77</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-11-14</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3083.4</v>
+        <v>3134.08</v>
       </c>
       <c r="E7" t="n">
-        <v>361788216</v>
+        <v>331470577</v>
       </c>
       <c r="F7" t="n">
-        <v>45454673</v>
+        <v>44646001</v>
       </c>
       <c r="G7" t="n">
-        <v>0.85</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-11-11</t>
+          <t>2022-11-14</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -649,22 +649,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3087.29</v>
+        <v>3083.4</v>
       </c>
       <c r="E8" t="n">
-        <v>409604534</v>
+        <v>361788216</v>
       </c>
       <c r="F8" t="n">
-        <v>51378460</v>
+        <v>45454673</v>
       </c>
       <c r="G8" t="n">
-        <v>0.95</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-11-10</t>
+          <t>2022-11-11</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -678,22 +678,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3036.13</v>
+        <v>3087.29</v>
       </c>
       <c r="E9" t="n">
-        <v>270371798</v>
+        <v>409604534</v>
       </c>
       <c r="F9" t="n">
-        <v>33592592</v>
+        <v>51378460</v>
       </c>
       <c r="G9" t="n">
-        <v>0.62</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-11-09</t>
+          <t>2022-11-10</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3048.17</v>
+        <v>3036.13</v>
       </c>
       <c r="E10" t="n">
-        <v>235637324</v>
+        <v>270371798</v>
       </c>
       <c r="F10" t="n">
-        <v>30686090</v>
+        <v>33592592</v>
       </c>
       <c r="G10" t="n">
-        <v>0.54</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-11-08</t>
+          <t>2022-11-09</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -736,22 +736,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3064.49</v>
+        <v>3048.17</v>
       </c>
       <c r="E11" t="n">
-        <v>256522007</v>
+        <v>235637324</v>
       </c>
       <c r="F11" t="n">
-        <v>33896694</v>
+        <v>30686090</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-11-07</t>
+          <t>2022-11-08</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3077.82</v>
+        <v>3064.49</v>
       </c>
       <c r="E12" t="n">
-        <v>320567097</v>
+        <v>256522007</v>
       </c>
       <c r="F12" t="n">
-        <v>42442913</v>
+        <v>33896694</v>
       </c>
       <c r="G12" t="n">
-        <v>0.74</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-11-04</t>
+          <t>2022-11-07</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -794,22 +794,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3070.8</v>
+        <v>3077.82</v>
       </c>
       <c r="E13" t="n">
-        <v>329806740</v>
+        <v>320567097</v>
       </c>
       <c r="F13" t="n">
-        <v>45877009</v>
+        <v>42442913</v>
       </c>
       <c r="G13" t="n">
-        <v>0.77</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2022-11-04</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -823,22 +823,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2997.81</v>
+        <v>3070.8</v>
       </c>
       <c r="E14" t="n">
-        <v>259348567</v>
+        <v>329806740</v>
       </c>
       <c r="F14" t="n">
-        <v>37065328</v>
+        <v>45877009</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -852,22 +852,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3003.37</v>
+        <v>2997.81</v>
       </c>
       <c r="E15" t="n">
-        <v>325078248</v>
+        <v>259348567</v>
       </c>
       <c r="F15" t="n">
-        <v>45758152</v>
+        <v>37065328</v>
       </c>
       <c r="G15" t="n">
-        <v>0.76</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2022-11-01</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2969.2</v>
+        <v>3003.37</v>
       </c>
       <c r="E16" t="n">
-        <v>319809578</v>
+        <v>325078248</v>
       </c>
       <c r="F16" t="n">
-        <v>43101590</v>
+        <v>45758152</v>
       </c>
       <c r="G16" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2022-11-01</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2893.48</v>
+        <v>2969.2</v>
       </c>
       <c r="E17" t="n">
-        <v>301994203</v>
+        <v>319809578</v>
       </c>
       <c r="F17" t="n">
-        <v>39665416</v>
+        <v>43101590</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2022-10-28</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -939,22 +939,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2915.93</v>
+        <v>2893.48</v>
       </c>
       <c r="E18" t="n">
-        <v>292531308</v>
+        <v>301994203</v>
       </c>
       <c r="F18" t="n">
-        <v>38526136</v>
+        <v>39665416</v>
       </c>
       <c r="G18" t="n">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2022-10-28</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -968,22 +968,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2982.9</v>
+        <v>2915.93</v>
       </c>
       <c r="E19" t="n">
-        <v>265608254</v>
+        <v>292531308</v>
       </c>
       <c r="F19" t="n">
-        <v>38133037</v>
+        <v>38526136</v>
       </c>
       <c r="G19" t="n">
-        <v>0.62</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2999.5</v>
+        <v>2982.9</v>
       </c>
       <c r="E20" t="n">
-        <v>268689492</v>
+        <v>265608254</v>
       </c>
       <c r="F20" t="n">
-        <v>37284527</v>
+        <v>38133037</v>
       </c>
       <c r="G20" t="n">
         <v>0.62</v>
@@ -1012,7 +1012,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2022-10-25</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1026,16 +1026,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2976.28</v>
+        <v>2999.5</v>
       </c>
       <c r="E21" t="n">
-        <v>255554160</v>
+        <v>268689492</v>
       </c>
       <c r="F21" t="n">
-        <v>33751928</v>
+        <v>37284527</v>
       </c>
       <c r="G21" t="n">
-        <v>0.59</v>
+        <v>0.62</v>
       </c>
     </row>
   </sheetData>

--- a/gengxiang/data/sh000001.xlsx
+++ b/gengxiang/data/sh000001.xlsx
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-11-22</t>
+          <t>2022-11-23</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,13 +475,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3088.94</v>
+        <v>3096.91</v>
       </c>
       <c r="E2" t="n">
-        <v>327565927</v>
+        <v>326155449</v>
       </c>
       <c r="F2" t="n">
-        <v>37414282</v>
+        <v>35640084</v>
       </c>
       <c r="G2" t="n">
         <v>0.76</v>
@@ -490,7 +490,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-11-21</t>
+          <t>2022-11-22</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3085.04</v>
+        <v>3088.94</v>
       </c>
       <c r="E3" t="n">
-        <v>256045549</v>
+        <v>327565927</v>
       </c>
       <c r="F3" t="n">
-        <v>34502550</v>
+        <v>37414282</v>
       </c>
       <c r="G3" t="n">
-        <v>0.59</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-11-18</t>
+          <t>2022-11-21</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3097.24</v>
+        <v>3085.04</v>
       </c>
       <c r="E4" t="n">
-        <v>299954276</v>
+        <v>256045549</v>
       </c>
       <c r="F4" t="n">
-        <v>38920739</v>
+        <v>34502550</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2022-11-18</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,22 +562,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3115.43</v>
+        <v>3097.24</v>
       </c>
       <c r="E5" t="n">
-        <v>287028407</v>
+        <v>299954276</v>
       </c>
       <c r="F5" t="n">
-        <v>37790011</v>
+        <v>38920739</v>
       </c>
       <c r="G5" t="n">
-        <v>0.66</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-11-16</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3119.98</v>
+        <v>3115.43</v>
       </c>
       <c r="E6" t="n">
-        <v>303429844</v>
+        <v>287028407</v>
       </c>
       <c r="F6" t="n">
-        <v>38699291</v>
+        <v>37790011</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2022-11-16</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3134.08</v>
+        <v>3119.98</v>
       </c>
       <c r="E7" t="n">
-        <v>331470577</v>
+        <v>303429844</v>
       </c>
       <c r="F7" t="n">
-        <v>44646001</v>
+        <v>38699291</v>
       </c>
       <c r="G7" t="n">
-        <v>0.77</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-11-14</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -649,22 +649,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3083.4</v>
+        <v>3134.08</v>
       </c>
       <c r="E8" t="n">
-        <v>361788216</v>
+        <v>331470577</v>
       </c>
       <c r="F8" t="n">
-        <v>45454673</v>
+        <v>44646001</v>
       </c>
       <c r="G8" t="n">
-        <v>0.85</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-11-11</t>
+          <t>2022-11-14</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -678,22 +678,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3087.29</v>
+        <v>3083.4</v>
       </c>
       <c r="E9" t="n">
-        <v>409604534</v>
+        <v>361788216</v>
       </c>
       <c r="F9" t="n">
-        <v>51378460</v>
+        <v>45454673</v>
       </c>
       <c r="G9" t="n">
-        <v>0.95</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-11-10</t>
+          <t>2022-11-11</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3036.13</v>
+        <v>3087.29</v>
       </c>
       <c r="E10" t="n">
-        <v>270371798</v>
+        <v>409604534</v>
       </c>
       <c r="F10" t="n">
-        <v>33592592</v>
+        <v>51378460</v>
       </c>
       <c r="G10" t="n">
-        <v>0.62</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-11-09</t>
+          <t>2022-11-10</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -736,22 +736,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3048.17</v>
+        <v>3036.13</v>
       </c>
       <c r="E11" t="n">
-        <v>235637324</v>
+        <v>270371798</v>
       </c>
       <c r="F11" t="n">
-        <v>30686090</v>
+        <v>33592592</v>
       </c>
       <c r="G11" t="n">
-        <v>0.54</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-11-08</t>
+          <t>2022-11-09</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3064.49</v>
+        <v>3048.17</v>
       </c>
       <c r="E12" t="n">
-        <v>256522007</v>
+        <v>235637324</v>
       </c>
       <c r="F12" t="n">
-        <v>33896694</v>
+        <v>30686090</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-11-07</t>
+          <t>2022-11-08</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -794,22 +794,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3077.82</v>
+        <v>3064.49</v>
       </c>
       <c r="E13" t="n">
-        <v>320567097</v>
+        <v>256522007</v>
       </c>
       <c r="F13" t="n">
-        <v>42442913</v>
+        <v>33896694</v>
       </c>
       <c r="G13" t="n">
-        <v>0.74</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-11-04</t>
+          <t>2022-11-07</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -823,22 +823,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3070.8</v>
+        <v>3077.82</v>
       </c>
       <c r="E14" t="n">
-        <v>329806740</v>
+        <v>320567097</v>
       </c>
       <c r="F14" t="n">
-        <v>45877009</v>
+        <v>42442913</v>
       </c>
       <c r="G14" t="n">
-        <v>0.77</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2022-11-04</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -852,22 +852,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2997.81</v>
+        <v>3070.8</v>
       </c>
       <c r="E15" t="n">
-        <v>259348567</v>
+        <v>329806740</v>
       </c>
       <c r="F15" t="n">
-        <v>37065328</v>
+        <v>45877009</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3003.37</v>
+        <v>2997.81</v>
       </c>
       <c r="E16" t="n">
-        <v>325078248</v>
+        <v>259348567</v>
       </c>
       <c r="F16" t="n">
-        <v>45758152</v>
+        <v>37065328</v>
       </c>
       <c r="G16" t="n">
-        <v>0.76</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2022-11-01</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2969.2</v>
+        <v>3003.37</v>
       </c>
       <c r="E17" t="n">
-        <v>319809578</v>
+        <v>325078248</v>
       </c>
       <c r="F17" t="n">
-        <v>43101590</v>
+        <v>45758152</v>
       </c>
       <c r="G17" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2022-11-01</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -939,22 +939,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2893.48</v>
+        <v>2969.2</v>
       </c>
       <c r="E18" t="n">
-        <v>301994203</v>
+        <v>319809578</v>
       </c>
       <c r="F18" t="n">
-        <v>39665416</v>
+        <v>43101590</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2022-10-28</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -968,22 +968,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2915.93</v>
+        <v>2893.48</v>
       </c>
       <c r="E19" t="n">
-        <v>292531308</v>
+        <v>301994203</v>
       </c>
       <c r="F19" t="n">
-        <v>38526136</v>
+        <v>39665416</v>
       </c>
       <c r="G19" t="n">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2022-10-28</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2982.9</v>
+        <v>2915.93</v>
       </c>
       <c r="E20" t="n">
-        <v>265608254</v>
+        <v>292531308</v>
       </c>
       <c r="F20" t="n">
-        <v>38133037</v>
+        <v>38526136</v>
       </c>
       <c r="G20" t="n">
-        <v>0.62</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1026,13 +1026,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2999.5</v>
+        <v>2982.9</v>
       </c>
       <c r="E21" t="n">
-        <v>268689492</v>
+        <v>265608254</v>
       </c>
       <c r="F21" t="n">
-        <v>37284527</v>
+        <v>38133037</v>
       </c>
       <c r="G21" t="n">
         <v>0.62</v>

--- a/gengxiang/data/sh000001.xlsx
+++ b/gengxiang/data/sh000001.xlsx
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-11-23</t>
+          <t>2022-11-24</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3096.91</v>
+        <v>3089.31</v>
       </c>
       <c r="E2" t="n">
-        <v>326155449</v>
+        <v>267482928</v>
       </c>
       <c r="F2" t="n">
-        <v>35640084</v>
+        <v>30819019</v>
       </c>
       <c r="G2" t="n">
-        <v>0.76</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-11-22</t>
+          <t>2022-11-23</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,13 +504,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3088.94</v>
+        <v>3096.91</v>
       </c>
       <c r="E3" t="n">
-        <v>327565927</v>
+        <v>326155449</v>
       </c>
       <c r="F3" t="n">
-        <v>37414282</v>
+        <v>35640084</v>
       </c>
       <c r="G3" t="n">
         <v>0.76</v>
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-11-21</t>
+          <t>2022-11-22</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3085.04</v>
+        <v>3088.94</v>
       </c>
       <c r="E4" t="n">
-        <v>256045549</v>
+        <v>327565927</v>
       </c>
       <c r="F4" t="n">
-        <v>34502550</v>
+        <v>37414282</v>
       </c>
       <c r="G4" t="n">
-        <v>0.59</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-11-18</t>
+          <t>2022-11-21</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,22 +562,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3097.24</v>
+        <v>3085.04</v>
       </c>
       <c r="E5" t="n">
-        <v>299954276</v>
+        <v>256045549</v>
       </c>
       <c r="F5" t="n">
-        <v>38920739</v>
+        <v>34502550</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2022-11-18</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3115.43</v>
+        <v>3097.24</v>
       </c>
       <c r="E6" t="n">
-        <v>287028407</v>
+        <v>299954276</v>
       </c>
       <c r="F6" t="n">
-        <v>37790011</v>
+        <v>38920739</v>
       </c>
       <c r="G6" t="n">
-        <v>0.66</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-11-16</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3119.98</v>
+        <v>3115.43</v>
       </c>
       <c r="E7" t="n">
-        <v>303429844</v>
+        <v>287028407</v>
       </c>
       <c r="F7" t="n">
-        <v>38699291</v>
+        <v>37790011</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2022-11-16</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -649,22 +649,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3134.08</v>
+        <v>3119.98</v>
       </c>
       <c r="E8" t="n">
-        <v>331470577</v>
+        <v>303429844</v>
       </c>
       <c r="F8" t="n">
-        <v>44646001</v>
+        <v>38699291</v>
       </c>
       <c r="G8" t="n">
-        <v>0.77</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-11-14</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -678,22 +678,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3083.4</v>
+        <v>3134.08</v>
       </c>
       <c r="E9" t="n">
-        <v>361788216</v>
+        <v>331470577</v>
       </c>
       <c r="F9" t="n">
-        <v>45454673</v>
+        <v>44646001</v>
       </c>
       <c r="G9" t="n">
-        <v>0.85</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-11-11</t>
+          <t>2022-11-14</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3087.29</v>
+        <v>3083.4</v>
       </c>
       <c r="E10" t="n">
-        <v>409604534</v>
+        <v>361788216</v>
       </c>
       <c r="F10" t="n">
-        <v>51378460</v>
+        <v>45454673</v>
       </c>
       <c r="G10" t="n">
-        <v>0.95</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-11-10</t>
+          <t>2022-11-11</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -736,22 +736,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3036.13</v>
+        <v>3087.29</v>
       </c>
       <c r="E11" t="n">
-        <v>270371798</v>
+        <v>409604534</v>
       </c>
       <c r="F11" t="n">
-        <v>33592592</v>
+        <v>51378460</v>
       </c>
       <c r="G11" t="n">
-        <v>0.62</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-11-09</t>
+          <t>2022-11-10</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3048.17</v>
+        <v>3036.13</v>
       </c>
       <c r="E12" t="n">
-        <v>235637324</v>
+        <v>270371798</v>
       </c>
       <c r="F12" t="n">
-        <v>30686090</v>
+        <v>33592592</v>
       </c>
       <c r="G12" t="n">
-        <v>0.54</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-11-08</t>
+          <t>2022-11-09</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -794,22 +794,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3064.49</v>
+        <v>3048.17</v>
       </c>
       <c r="E13" t="n">
-        <v>256522007</v>
+        <v>235637324</v>
       </c>
       <c r="F13" t="n">
-        <v>33896694</v>
+        <v>30686090</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-11-07</t>
+          <t>2022-11-08</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -823,22 +823,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3077.82</v>
+        <v>3064.49</v>
       </c>
       <c r="E14" t="n">
-        <v>320567097</v>
+        <v>256522007</v>
       </c>
       <c r="F14" t="n">
-        <v>42442913</v>
+        <v>33896694</v>
       </c>
       <c r="G14" t="n">
-        <v>0.74</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2022-11-04</t>
+          <t>2022-11-07</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -852,22 +852,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3070.8</v>
+        <v>3077.82</v>
       </c>
       <c r="E15" t="n">
-        <v>329806740</v>
+        <v>320567097</v>
       </c>
       <c r="F15" t="n">
-        <v>45877009</v>
+        <v>42442913</v>
       </c>
       <c r="G15" t="n">
-        <v>0.77</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2022-11-04</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2997.81</v>
+        <v>3070.8</v>
       </c>
       <c r="E16" t="n">
-        <v>259348567</v>
+        <v>329806740</v>
       </c>
       <c r="F16" t="n">
-        <v>37065328</v>
+        <v>45877009</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3003.37</v>
+        <v>2997.81</v>
       </c>
       <c r="E17" t="n">
-        <v>325078248</v>
+        <v>259348567</v>
       </c>
       <c r="F17" t="n">
-        <v>45758152</v>
+        <v>37065328</v>
       </c>
       <c r="G17" t="n">
-        <v>0.76</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2022-11-01</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -939,22 +939,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2969.2</v>
+        <v>3003.37</v>
       </c>
       <c r="E18" t="n">
-        <v>319809578</v>
+        <v>325078248</v>
       </c>
       <c r="F18" t="n">
-        <v>43101590</v>
+        <v>45758152</v>
       </c>
       <c r="G18" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2022-11-01</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -968,22 +968,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2893.48</v>
+        <v>2969.2</v>
       </c>
       <c r="E19" t="n">
-        <v>301994203</v>
+        <v>319809578</v>
       </c>
       <c r="F19" t="n">
-        <v>39665416</v>
+        <v>43101590</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2022-10-28</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2915.93</v>
+        <v>2893.48</v>
       </c>
       <c r="E20" t="n">
-        <v>292531308</v>
+        <v>301994203</v>
       </c>
       <c r="F20" t="n">
-        <v>38526136</v>
+        <v>39665416</v>
       </c>
       <c r="G20" t="n">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2022-10-28</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1026,16 +1026,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2982.9</v>
+        <v>2915.93</v>
       </c>
       <c r="E21" t="n">
-        <v>265608254</v>
+        <v>292531308</v>
       </c>
       <c r="F21" t="n">
-        <v>38133037</v>
+        <v>38526136</v>
       </c>
       <c r="G21" t="n">
-        <v>0.62</v>
+        <v>0.68</v>
       </c>
     </row>
   </sheetData>

--- a/gengxiang/data/sh000001.xlsx
+++ b/gengxiang/data/sh000001.xlsx
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-11-24</t>
+          <t>2022-11-25</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3089.31</v>
+        <v>3101.69</v>
       </c>
       <c r="E2" t="n">
-        <v>267482928</v>
+        <v>311431979</v>
       </c>
       <c r="F2" t="n">
-        <v>30819019</v>
+        <v>32542634</v>
       </c>
       <c r="G2" t="n">
-        <v>0.62</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-11-23</t>
+          <t>2022-11-24</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3096.91</v>
+        <v>3089.31</v>
       </c>
       <c r="E3" t="n">
-        <v>326155449</v>
+        <v>267482928</v>
       </c>
       <c r="F3" t="n">
-        <v>35640084</v>
+        <v>30819019</v>
       </c>
       <c r="G3" t="n">
-        <v>0.76</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-11-22</t>
+          <t>2022-11-23</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,13 +533,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3088.94</v>
+        <v>3096.91</v>
       </c>
       <c r="E4" t="n">
-        <v>327565927</v>
+        <v>326155449</v>
       </c>
       <c r="F4" t="n">
-        <v>37414282</v>
+        <v>35640084</v>
       </c>
       <c r="G4" t="n">
         <v>0.76</v>
@@ -548,7 +548,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-11-21</t>
+          <t>2022-11-22</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,22 +562,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3085.04</v>
+        <v>3088.94</v>
       </c>
       <c r="E5" t="n">
-        <v>256045549</v>
+        <v>327565927</v>
       </c>
       <c r="F5" t="n">
-        <v>34502550</v>
+        <v>37414282</v>
       </c>
       <c r="G5" t="n">
-        <v>0.59</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-11-18</t>
+          <t>2022-11-21</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3097.24</v>
+        <v>3085.04</v>
       </c>
       <c r="E6" t="n">
-        <v>299954276</v>
+        <v>256045549</v>
       </c>
       <c r="F6" t="n">
-        <v>38920739</v>
+        <v>34502550</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2022-11-18</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3115.43</v>
+        <v>3097.24</v>
       </c>
       <c r="E7" t="n">
-        <v>287028407</v>
+        <v>299954276</v>
       </c>
       <c r="F7" t="n">
-        <v>37790011</v>
+        <v>38920739</v>
       </c>
       <c r="G7" t="n">
-        <v>0.66</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-11-16</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -649,22 +649,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3119.98</v>
+        <v>3115.43</v>
       </c>
       <c r="E8" t="n">
-        <v>303429844</v>
+        <v>287028407</v>
       </c>
       <c r="F8" t="n">
-        <v>38699291</v>
+        <v>37790011</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2022-11-16</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -678,22 +678,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3134.08</v>
+        <v>3119.98</v>
       </c>
       <c r="E9" t="n">
-        <v>331470577</v>
+        <v>303429844</v>
       </c>
       <c r="F9" t="n">
-        <v>44646001</v>
+        <v>38699291</v>
       </c>
       <c r="G9" t="n">
-        <v>0.77</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-11-14</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3083.4</v>
+        <v>3134.08</v>
       </c>
       <c r="E10" t="n">
-        <v>361788216</v>
+        <v>331470577</v>
       </c>
       <c r="F10" t="n">
-        <v>45454673</v>
+        <v>44646001</v>
       </c>
       <c r="G10" t="n">
-        <v>0.85</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-11-11</t>
+          <t>2022-11-14</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -736,22 +736,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3087.29</v>
+        <v>3083.4</v>
       </c>
       <c r="E11" t="n">
-        <v>409604534</v>
+        <v>361788216</v>
       </c>
       <c r="F11" t="n">
-        <v>51378460</v>
+        <v>45454673</v>
       </c>
       <c r="G11" t="n">
-        <v>0.95</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-11-10</t>
+          <t>2022-11-11</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3036.13</v>
+        <v>3087.29</v>
       </c>
       <c r="E12" t="n">
-        <v>270371798</v>
+        <v>409604534</v>
       </c>
       <c r="F12" t="n">
-        <v>33592592</v>
+        <v>51378460</v>
       </c>
       <c r="G12" t="n">
-        <v>0.62</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-11-09</t>
+          <t>2022-11-10</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -794,22 +794,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3048.17</v>
+        <v>3036.13</v>
       </c>
       <c r="E13" t="n">
-        <v>235637324</v>
+        <v>270371798</v>
       </c>
       <c r="F13" t="n">
-        <v>30686090</v>
+        <v>33592592</v>
       </c>
       <c r="G13" t="n">
-        <v>0.54</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-11-08</t>
+          <t>2022-11-09</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -823,22 +823,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3064.49</v>
+        <v>3048.17</v>
       </c>
       <c r="E14" t="n">
-        <v>256522007</v>
+        <v>235637324</v>
       </c>
       <c r="F14" t="n">
-        <v>33896694</v>
+        <v>30686090</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2022-11-07</t>
+          <t>2022-11-08</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -852,22 +852,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3077.82</v>
+        <v>3064.49</v>
       </c>
       <c r="E15" t="n">
-        <v>320567097</v>
+        <v>256522007</v>
       </c>
       <c r="F15" t="n">
-        <v>42442913</v>
+        <v>33896694</v>
       </c>
       <c r="G15" t="n">
-        <v>0.74</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2022-11-04</t>
+          <t>2022-11-07</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3070.8</v>
+        <v>3077.82</v>
       </c>
       <c r="E16" t="n">
-        <v>329806740</v>
+        <v>320567097</v>
       </c>
       <c r="F16" t="n">
-        <v>45877009</v>
+        <v>42442913</v>
       </c>
       <c r="G16" t="n">
-        <v>0.77</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2022-11-04</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2997.81</v>
+        <v>3070.8</v>
       </c>
       <c r="E17" t="n">
-        <v>259348567</v>
+        <v>329806740</v>
       </c>
       <c r="F17" t="n">
-        <v>37065328</v>
+        <v>45877009</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -939,22 +939,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3003.37</v>
+        <v>2997.81</v>
       </c>
       <c r="E18" t="n">
-        <v>325078248</v>
+        <v>259348567</v>
       </c>
       <c r="F18" t="n">
-        <v>45758152</v>
+        <v>37065328</v>
       </c>
       <c r="G18" t="n">
-        <v>0.76</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2022-11-01</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -968,22 +968,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2969.2</v>
+        <v>3003.37</v>
       </c>
       <c r="E19" t="n">
-        <v>319809578</v>
+        <v>325078248</v>
       </c>
       <c r="F19" t="n">
-        <v>43101590</v>
+        <v>45758152</v>
       </c>
       <c r="G19" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2022-11-01</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2893.48</v>
+        <v>2969.2</v>
       </c>
       <c r="E20" t="n">
-        <v>301994203</v>
+        <v>319809578</v>
       </c>
       <c r="F20" t="n">
-        <v>39665416</v>
+        <v>43101590</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2022-10-28</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1026,16 +1026,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2915.93</v>
+        <v>2893.48</v>
       </c>
       <c r="E21" t="n">
-        <v>292531308</v>
+        <v>301994203</v>
       </c>
       <c r="F21" t="n">
-        <v>38526136</v>
+        <v>39665416</v>
       </c>
       <c r="G21" t="n">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>

--- a/gengxiang/data/sh000001.xlsx
+++ b/gengxiang/data/sh000001.xlsx
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-11-25</t>
+          <t>2022-11-29</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3101.69</v>
+        <v>3146.51</v>
       </c>
       <c r="E2" t="n">
-        <v>311431979</v>
+        <v>237687504</v>
       </c>
       <c r="F2" t="n">
-        <v>32542634</v>
+        <v>25920496</v>
       </c>
       <c r="G2" t="n">
-        <v>0.72</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-11-24</t>
+          <t>2022-11-28</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3089.31</v>
+        <v>3078.55</v>
       </c>
       <c r="E3" t="n">
-        <v>267482928</v>
+        <v>305811284</v>
       </c>
       <c r="F3" t="n">
-        <v>30819019</v>
+        <v>33854935</v>
       </c>
       <c r="G3" t="n">
-        <v>0.62</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-11-23</t>
+          <t>2022-11-25</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3096.91</v>
+        <v>3101.69</v>
       </c>
       <c r="E4" t="n">
-        <v>326155449</v>
+        <v>311431979</v>
       </c>
       <c r="F4" t="n">
-        <v>35640084</v>
+        <v>32542634</v>
       </c>
       <c r="G4" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-11-22</t>
+          <t>2022-11-24</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,22 +562,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3088.94</v>
+        <v>3089.31</v>
       </c>
       <c r="E5" t="n">
-        <v>327565927</v>
+        <v>267482928</v>
       </c>
       <c r="F5" t="n">
-        <v>37414282</v>
+        <v>30819019</v>
       </c>
       <c r="G5" t="n">
-        <v>0.76</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-11-21</t>
+          <t>2022-11-23</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3085.04</v>
+        <v>3096.91</v>
       </c>
       <c r="E6" t="n">
-        <v>256045549</v>
+        <v>326155449</v>
       </c>
       <c r="F6" t="n">
-        <v>34502550</v>
+        <v>35640084</v>
       </c>
       <c r="G6" t="n">
-        <v>0.59</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-11-18</t>
+          <t>2022-11-22</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3097.24</v>
+        <v>3088.94</v>
       </c>
       <c r="E7" t="n">
-        <v>299954276</v>
+        <v>327565927</v>
       </c>
       <c r="F7" t="n">
-        <v>38920739</v>
+        <v>37414282</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2022-11-21</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -649,22 +649,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3115.43</v>
+        <v>3085.04</v>
       </c>
       <c r="E8" t="n">
-        <v>287028407</v>
+        <v>256045549</v>
       </c>
       <c r="F8" t="n">
-        <v>37790011</v>
+        <v>34502550</v>
       </c>
       <c r="G8" t="n">
-        <v>0.66</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-11-16</t>
+          <t>2022-11-18</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -678,22 +678,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3119.98</v>
+        <v>3097.24</v>
       </c>
       <c r="E9" t="n">
-        <v>303429844</v>
+        <v>299954276</v>
       </c>
       <c r="F9" t="n">
-        <v>38699291</v>
+        <v>38920739</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3134.08</v>
+        <v>3115.43</v>
       </c>
       <c r="E10" t="n">
-        <v>331470577</v>
+        <v>287028407</v>
       </c>
       <c r="F10" t="n">
-        <v>44646001</v>
+        <v>37790011</v>
       </c>
       <c r="G10" t="n">
-        <v>0.77</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-11-14</t>
+          <t>2022-11-16</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -736,22 +736,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3083.4</v>
+        <v>3119.98</v>
       </c>
       <c r="E11" t="n">
-        <v>361788216</v>
+        <v>303429844</v>
       </c>
       <c r="F11" t="n">
-        <v>45454673</v>
+        <v>38699291</v>
       </c>
       <c r="G11" t="n">
-        <v>0.85</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-11-11</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3087.29</v>
+        <v>3134.08</v>
       </c>
       <c r="E12" t="n">
-        <v>409604534</v>
+        <v>331470577</v>
       </c>
       <c r="F12" t="n">
-        <v>51378460</v>
+        <v>44646001</v>
       </c>
       <c r="G12" t="n">
-        <v>0.95</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-11-10</t>
+          <t>2022-11-14</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -794,22 +794,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3036.13</v>
+        <v>3083.4</v>
       </c>
       <c r="E13" t="n">
-        <v>270371798</v>
+        <v>361788216</v>
       </c>
       <c r="F13" t="n">
-        <v>33592592</v>
+        <v>45454673</v>
       </c>
       <c r="G13" t="n">
-        <v>0.62</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-11-09</t>
+          <t>2022-11-11</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -823,22 +823,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3048.17</v>
+        <v>3087.29</v>
       </c>
       <c r="E14" t="n">
-        <v>235637324</v>
+        <v>409604534</v>
       </c>
       <c r="F14" t="n">
-        <v>30686090</v>
+        <v>51378460</v>
       </c>
       <c r="G14" t="n">
-        <v>0.54</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2022-11-08</t>
+          <t>2022-11-10</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -852,22 +852,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3064.49</v>
+        <v>3036.13</v>
       </c>
       <c r="E15" t="n">
-        <v>256522007</v>
+        <v>270371798</v>
       </c>
       <c r="F15" t="n">
-        <v>33896694</v>
+        <v>33592592</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2022-11-07</t>
+          <t>2022-11-09</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3077.82</v>
+        <v>3048.17</v>
       </c>
       <c r="E16" t="n">
-        <v>320567097</v>
+        <v>235637324</v>
       </c>
       <c r="F16" t="n">
-        <v>42442913</v>
+        <v>30686090</v>
       </c>
       <c r="G16" t="n">
-        <v>0.74</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2022-11-04</t>
+          <t>2022-11-08</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3070.8</v>
+        <v>3064.49</v>
       </c>
       <c r="E17" t="n">
-        <v>329806740</v>
+        <v>256522007</v>
       </c>
       <c r="F17" t="n">
-        <v>45877009</v>
+        <v>33896694</v>
       </c>
       <c r="G17" t="n">
-        <v>0.77</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2022-11-07</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -939,22 +939,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2997.81</v>
+        <v>3077.82</v>
       </c>
       <c r="E18" t="n">
-        <v>259348567</v>
+        <v>320567097</v>
       </c>
       <c r="F18" t="n">
-        <v>37065328</v>
+        <v>42442913</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2022-11-04</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -968,22 +968,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3003.37</v>
+        <v>3070.8</v>
       </c>
       <c r="E19" t="n">
-        <v>325078248</v>
+        <v>329806740</v>
       </c>
       <c r="F19" t="n">
-        <v>45758152</v>
+        <v>45877009</v>
       </c>
       <c r="G19" t="n">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2022-11-01</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2969.2</v>
+        <v>2997.81</v>
       </c>
       <c r="E20" t="n">
-        <v>319809578</v>
+        <v>259348567</v>
       </c>
       <c r="F20" t="n">
-        <v>43101590</v>
+        <v>37065328</v>
       </c>
       <c r="G20" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1026,16 +1026,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2893.48</v>
+        <v>3003.37</v>
       </c>
       <c r="E21" t="n">
-        <v>301994203</v>
+        <v>325078248</v>
       </c>
       <c r="F21" t="n">
-        <v>39665416</v>
+        <v>45758152</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7</v>
+        <v>0.76</v>
       </c>
     </row>
   </sheetData>

--- a/gengxiang/data/sh000001.xlsx
+++ b/gengxiang/data/sh000001.xlsx
@@ -475,16 +475,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3146.51</v>
+        <v>3149.75</v>
       </c>
       <c r="E2" t="n">
-        <v>237687504</v>
+        <v>391449748</v>
       </c>
       <c r="F2" t="n">
-        <v>25920496</v>
+        <v>43910262</v>
       </c>
       <c r="G2" t="n">
-        <v>0.55</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="3">

--- a/gengxiang/data/sh000001.xlsx
+++ b/gengxiang/data/sh000001.xlsx
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-11-29</t>
+          <t>2022-11-30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3149.75</v>
+        <v>3151.34</v>
       </c>
       <c r="E2" t="n">
-        <v>391449748</v>
+        <v>372718321</v>
       </c>
       <c r="F2" t="n">
-        <v>43910262</v>
+        <v>40450438</v>
       </c>
       <c r="G2" t="n">
-        <v>0.91</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-11-28</t>
+          <t>2022-11-29</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3078.55</v>
+        <v>3149.75</v>
       </c>
       <c r="E3" t="n">
-        <v>305811284</v>
+        <v>391449748</v>
       </c>
       <c r="F3" t="n">
-        <v>33854935</v>
+        <v>43910262</v>
       </c>
       <c r="G3" t="n">
-        <v>0.71</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-11-25</t>
+          <t>2022-11-28</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3101.69</v>
+        <v>3078.55</v>
       </c>
       <c r="E4" t="n">
-        <v>311431979</v>
+        <v>305811284</v>
       </c>
       <c r="F4" t="n">
-        <v>32542634</v>
+        <v>33854935</v>
       </c>
       <c r="G4" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-11-24</t>
+          <t>2022-11-25</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,22 +562,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3089.31</v>
+        <v>3101.69</v>
       </c>
       <c r="E5" t="n">
-        <v>267482928</v>
+        <v>311431979</v>
       </c>
       <c r="F5" t="n">
-        <v>30819019</v>
+        <v>32542634</v>
       </c>
       <c r="G5" t="n">
-        <v>0.62</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-11-23</t>
+          <t>2022-11-24</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3096.91</v>
+        <v>3089.31</v>
       </c>
       <c r="E6" t="n">
-        <v>326155449</v>
+        <v>267482928</v>
       </c>
       <c r="F6" t="n">
-        <v>35640084</v>
+        <v>30819019</v>
       </c>
       <c r="G6" t="n">
-        <v>0.76</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-11-22</t>
+          <t>2022-11-23</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -620,13 +620,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3088.94</v>
+        <v>3096.91</v>
       </c>
       <c r="E7" t="n">
-        <v>327565927</v>
+        <v>326155449</v>
       </c>
       <c r="F7" t="n">
-        <v>37414282</v>
+        <v>35640084</v>
       </c>
       <c r="G7" t="n">
         <v>0.76</v>
@@ -635,7 +635,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-11-21</t>
+          <t>2022-11-22</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -649,22 +649,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3085.04</v>
+        <v>3088.94</v>
       </c>
       <c r="E8" t="n">
-        <v>256045549</v>
+        <v>327565927</v>
       </c>
       <c r="F8" t="n">
-        <v>34502550</v>
+        <v>37414282</v>
       </c>
       <c r="G8" t="n">
-        <v>0.59</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-11-18</t>
+          <t>2022-11-21</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -678,22 +678,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3097.24</v>
+        <v>3085.04</v>
       </c>
       <c r="E9" t="n">
-        <v>299954276</v>
+        <v>256045549</v>
       </c>
       <c r="F9" t="n">
-        <v>38920739</v>
+        <v>34502550</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2022-11-18</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3115.43</v>
+        <v>3097.24</v>
       </c>
       <c r="E10" t="n">
-        <v>287028407</v>
+        <v>299954276</v>
       </c>
       <c r="F10" t="n">
-        <v>37790011</v>
+        <v>38920739</v>
       </c>
       <c r="G10" t="n">
-        <v>0.66</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-11-16</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -736,22 +736,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3119.98</v>
+        <v>3115.43</v>
       </c>
       <c r="E11" t="n">
-        <v>303429844</v>
+        <v>287028407</v>
       </c>
       <c r="F11" t="n">
-        <v>38699291</v>
+        <v>37790011</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2022-11-16</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3134.08</v>
+        <v>3119.98</v>
       </c>
       <c r="E12" t="n">
-        <v>331470577</v>
+        <v>303429844</v>
       </c>
       <c r="F12" t="n">
-        <v>44646001</v>
+        <v>38699291</v>
       </c>
       <c r="G12" t="n">
-        <v>0.77</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-11-14</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -794,22 +794,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3083.4</v>
+        <v>3134.08</v>
       </c>
       <c r="E13" t="n">
-        <v>361788216</v>
+        <v>331470577</v>
       </c>
       <c r="F13" t="n">
-        <v>45454673</v>
+        <v>44646001</v>
       </c>
       <c r="G13" t="n">
-        <v>0.85</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-11-11</t>
+          <t>2022-11-14</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -823,22 +823,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3087.29</v>
+        <v>3083.4</v>
       </c>
       <c r="E14" t="n">
-        <v>409604534</v>
+        <v>361788216</v>
       </c>
       <c r="F14" t="n">
-        <v>51378460</v>
+        <v>45454673</v>
       </c>
       <c r="G14" t="n">
-        <v>0.95</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2022-11-10</t>
+          <t>2022-11-11</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -852,22 +852,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3036.13</v>
+        <v>3087.29</v>
       </c>
       <c r="E15" t="n">
-        <v>270371798</v>
+        <v>409604534</v>
       </c>
       <c r="F15" t="n">
-        <v>33592592</v>
+        <v>51378460</v>
       </c>
       <c r="G15" t="n">
-        <v>0.62</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2022-11-09</t>
+          <t>2022-11-10</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3048.17</v>
+        <v>3036.13</v>
       </c>
       <c r="E16" t="n">
-        <v>235637324</v>
+        <v>270371798</v>
       </c>
       <c r="F16" t="n">
-        <v>30686090</v>
+        <v>33592592</v>
       </c>
       <c r="G16" t="n">
-        <v>0.54</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2022-11-08</t>
+          <t>2022-11-09</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3064.49</v>
+        <v>3048.17</v>
       </c>
       <c r="E17" t="n">
-        <v>256522007</v>
+        <v>235637324</v>
       </c>
       <c r="F17" t="n">
-        <v>33896694</v>
+        <v>30686090</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2022-11-07</t>
+          <t>2022-11-08</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -939,22 +939,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3077.82</v>
+        <v>3064.49</v>
       </c>
       <c r="E18" t="n">
-        <v>320567097</v>
+        <v>256522007</v>
       </c>
       <c r="F18" t="n">
-        <v>42442913</v>
+        <v>33896694</v>
       </c>
       <c r="G18" t="n">
-        <v>0.74</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2022-11-04</t>
+          <t>2022-11-07</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -968,22 +968,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3070.8</v>
+        <v>3077.82</v>
       </c>
       <c r="E19" t="n">
-        <v>329806740</v>
+        <v>320567097</v>
       </c>
       <c r="F19" t="n">
-        <v>45877009</v>
+        <v>42442913</v>
       </c>
       <c r="G19" t="n">
-        <v>0.77</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2022-11-04</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2997.81</v>
+        <v>3070.8</v>
       </c>
       <c r="E20" t="n">
-        <v>259348567</v>
+        <v>329806740</v>
       </c>
       <c r="F20" t="n">
-        <v>37065328</v>
+        <v>45877009</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1026,16 +1026,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3003.37</v>
+        <v>2997.81</v>
       </c>
       <c r="E21" t="n">
-        <v>325078248</v>
+        <v>259348567</v>
       </c>
       <c r="F21" t="n">
-        <v>45758152</v>
+        <v>37065328</v>
       </c>
       <c r="G21" t="n">
-        <v>0.76</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>

--- a/gengxiang/data/sh000001.xlsx
+++ b/gengxiang/data/sh000001.xlsx
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-11-29</t>
+          <t>2022-12-01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3149.75</v>
+        <v>3165.47</v>
       </c>
       <c r="E2" t="n">
-        <v>391449748</v>
+        <v>387013056</v>
       </c>
       <c r="F2" t="n">
-        <v>43910262</v>
+        <v>46218497</v>
       </c>
       <c r="G2" t="n">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-11-28</t>
+          <t>2022-11-30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3078.55</v>
+        <v>3151.34</v>
       </c>
       <c r="E3" t="n">
-        <v>305811284</v>
+        <v>372718321</v>
       </c>
       <c r="F3" t="n">
-        <v>33854935</v>
+        <v>40450438</v>
       </c>
       <c r="G3" t="n">
-        <v>0.71</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-11-25</t>
+          <t>2022-11-29</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3101.69</v>
+        <v>3149.75</v>
       </c>
       <c r="E4" t="n">
-        <v>311431979</v>
+        <v>391449748</v>
       </c>
       <c r="F4" t="n">
-        <v>32542634</v>
+        <v>43910262</v>
       </c>
       <c r="G4" t="n">
-        <v>0.72</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-11-24</t>
+          <t>2022-11-28</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,22 +562,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3089.31</v>
+        <v>3078.55</v>
       </c>
       <c r="E5" t="n">
-        <v>267482928</v>
+        <v>305811284</v>
       </c>
       <c r="F5" t="n">
-        <v>30819019</v>
+        <v>33854935</v>
       </c>
       <c r="G5" t="n">
-        <v>0.62</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-11-23</t>
+          <t>2022-11-25</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3096.91</v>
+        <v>3101.69</v>
       </c>
       <c r="E6" t="n">
-        <v>326155449</v>
+        <v>311431979</v>
       </c>
       <c r="F6" t="n">
-        <v>35640084</v>
+        <v>32542634</v>
       </c>
       <c r="G6" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-11-22</t>
+          <t>2022-11-24</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3088.94</v>
+        <v>3089.31</v>
       </c>
       <c r="E7" t="n">
-        <v>327565927</v>
+        <v>267482928</v>
       </c>
       <c r="F7" t="n">
-        <v>37414282</v>
+        <v>30819019</v>
       </c>
       <c r="G7" t="n">
-        <v>0.76</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-11-21</t>
+          <t>2022-11-23</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -649,22 +649,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3085.04</v>
+        <v>3096.91</v>
       </c>
       <c r="E8" t="n">
-        <v>256045549</v>
+        <v>326155449</v>
       </c>
       <c r="F8" t="n">
-        <v>34502550</v>
+        <v>35640084</v>
       </c>
       <c r="G8" t="n">
-        <v>0.59</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-11-18</t>
+          <t>2022-11-22</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -678,22 +678,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3097.24</v>
+        <v>3088.94</v>
       </c>
       <c r="E9" t="n">
-        <v>299954276</v>
+        <v>327565927</v>
       </c>
       <c r="F9" t="n">
-        <v>38920739</v>
+        <v>37414282</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2022-11-21</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3115.43</v>
+        <v>3085.04</v>
       </c>
       <c r="E10" t="n">
-        <v>287028407</v>
+        <v>256045549</v>
       </c>
       <c r="F10" t="n">
-        <v>37790011</v>
+        <v>34502550</v>
       </c>
       <c r="G10" t="n">
-        <v>0.66</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-11-16</t>
+          <t>2022-11-18</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -736,22 +736,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3119.98</v>
+        <v>3097.24</v>
       </c>
       <c r="E11" t="n">
-        <v>303429844</v>
+        <v>299954276</v>
       </c>
       <c r="F11" t="n">
-        <v>38699291</v>
+        <v>38920739</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3134.08</v>
+        <v>3115.43</v>
       </c>
       <c r="E12" t="n">
-        <v>331470577</v>
+        <v>287028407</v>
       </c>
       <c r="F12" t="n">
-        <v>44646001</v>
+        <v>37790011</v>
       </c>
       <c r="G12" t="n">
-        <v>0.77</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-11-14</t>
+          <t>2022-11-16</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -794,22 +794,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3083.4</v>
+        <v>3119.98</v>
       </c>
       <c r="E13" t="n">
-        <v>361788216</v>
+        <v>303429844</v>
       </c>
       <c r="F13" t="n">
-        <v>45454673</v>
+        <v>38699291</v>
       </c>
       <c r="G13" t="n">
-        <v>0.85</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-11-11</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -823,22 +823,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3087.29</v>
+        <v>3134.08</v>
       </c>
       <c r="E14" t="n">
-        <v>409604534</v>
+        <v>331470577</v>
       </c>
       <c r="F14" t="n">
-        <v>51378460</v>
+        <v>44646001</v>
       </c>
       <c r="G14" t="n">
-        <v>0.95</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2022-11-10</t>
+          <t>2022-11-14</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -852,22 +852,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3036.13</v>
+        <v>3083.4</v>
       </c>
       <c r="E15" t="n">
-        <v>270371798</v>
+        <v>361788216</v>
       </c>
       <c r="F15" t="n">
-        <v>33592592</v>
+        <v>45454673</v>
       </c>
       <c r="G15" t="n">
-        <v>0.62</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2022-11-09</t>
+          <t>2022-11-11</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3048.17</v>
+        <v>3087.29</v>
       </c>
       <c r="E16" t="n">
-        <v>235637324</v>
+        <v>409604534</v>
       </c>
       <c r="F16" t="n">
-        <v>30686090</v>
+        <v>51378460</v>
       </c>
       <c r="G16" t="n">
-        <v>0.54</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2022-11-08</t>
+          <t>2022-11-10</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3064.49</v>
+        <v>3036.13</v>
       </c>
       <c r="E17" t="n">
-        <v>256522007</v>
+        <v>270371798</v>
       </c>
       <c r="F17" t="n">
-        <v>33896694</v>
+        <v>33592592</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2022-11-07</t>
+          <t>2022-11-09</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -939,22 +939,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3077.82</v>
+        <v>3048.17</v>
       </c>
       <c r="E18" t="n">
-        <v>320567097</v>
+        <v>235637324</v>
       </c>
       <c r="F18" t="n">
-        <v>42442913</v>
+        <v>30686090</v>
       </c>
       <c r="G18" t="n">
-        <v>0.74</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2022-11-04</t>
+          <t>2022-11-08</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -968,22 +968,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3070.8</v>
+        <v>3064.49</v>
       </c>
       <c r="E19" t="n">
-        <v>329806740</v>
+        <v>256522007</v>
       </c>
       <c r="F19" t="n">
-        <v>45877009</v>
+        <v>33896694</v>
       </c>
       <c r="G19" t="n">
-        <v>0.77</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2022-11-07</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2997.81</v>
+        <v>3077.82</v>
       </c>
       <c r="E20" t="n">
-        <v>259348567</v>
+        <v>320567097</v>
       </c>
       <c r="F20" t="n">
-        <v>37065328</v>
+        <v>42442913</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2022-11-04</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1026,16 +1026,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3003.37</v>
+        <v>3070.8</v>
       </c>
       <c r="E21" t="n">
-        <v>325078248</v>
+        <v>329806740</v>
       </c>
       <c r="F21" t="n">
-        <v>45758152</v>
+        <v>45877009</v>
       </c>
       <c r="G21" t="n">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
     </row>
   </sheetData>

--- a/gengxiang/data/sh000001.xlsx
+++ b/gengxiang/data/sh000001.xlsx
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-12-02</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3165.47</v>
+        <v>3156.14</v>
       </c>
       <c r="E2" t="n">
-        <v>387013056</v>
+        <v>307812484</v>
       </c>
       <c r="F2" t="n">
-        <v>46218497</v>
+        <v>36631868</v>
       </c>
       <c r="G2" t="n">
-        <v>0.89</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2022-12-01</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3151.34</v>
+        <v>3165.47</v>
       </c>
       <c r="E3" t="n">
-        <v>372718321</v>
+        <v>387013056</v>
       </c>
       <c r="F3" t="n">
-        <v>40450438</v>
+        <v>46218497</v>
       </c>
       <c r="G3" t="n">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-11-29</t>
+          <t>2022-11-30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3149.75</v>
+        <v>3151.34</v>
       </c>
       <c r="E4" t="n">
-        <v>391449748</v>
+        <v>372718321</v>
       </c>
       <c r="F4" t="n">
-        <v>43910262</v>
+        <v>40450438</v>
       </c>
       <c r="G4" t="n">
-        <v>0.91</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-11-28</t>
+          <t>2022-11-29</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,22 +562,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3078.55</v>
+        <v>3149.75</v>
       </c>
       <c r="E5" t="n">
-        <v>305811284</v>
+        <v>391449748</v>
       </c>
       <c r="F5" t="n">
-        <v>33854935</v>
+        <v>43910262</v>
       </c>
       <c r="G5" t="n">
-        <v>0.71</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-11-25</t>
+          <t>2022-11-28</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3101.69</v>
+        <v>3078.55</v>
       </c>
       <c r="E6" t="n">
-        <v>311431979</v>
+        <v>305811284</v>
       </c>
       <c r="F6" t="n">
-        <v>32542634</v>
+        <v>33854935</v>
       </c>
       <c r="G6" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-11-24</t>
+          <t>2022-11-25</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3089.31</v>
+        <v>3101.69</v>
       </c>
       <c r="E7" t="n">
-        <v>267482928</v>
+        <v>311431979</v>
       </c>
       <c r="F7" t="n">
-        <v>30819019</v>
+        <v>32542634</v>
       </c>
       <c r="G7" t="n">
-        <v>0.62</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-11-23</t>
+          <t>2022-11-24</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -649,22 +649,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3096.91</v>
+        <v>3089.31</v>
       </c>
       <c r="E8" t="n">
-        <v>326155449</v>
+        <v>267482928</v>
       </c>
       <c r="F8" t="n">
-        <v>35640084</v>
+        <v>30819019</v>
       </c>
       <c r="G8" t="n">
-        <v>0.76</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-11-22</t>
+          <t>2022-11-23</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -678,13 +678,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3088.94</v>
+        <v>3096.91</v>
       </c>
       <c r="E9" t="n">
-        <v>327565927</v>
+        <v>326155449</v>
       </c>
       <c r="F9" t="n">
-        <v>37414282</v>
+        <v>35640084</v>
       </c>
       <c r="G9" t="n">
         <v>0.76</v>
@@ -693,7 +693,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-11-21</t>
+          <t>2022-11-22</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3085.04</v>
+        <v>3088.94</v>
       </c>
       <c r="E10" t="n">
-        <v>256045549</v>
+        <v>327565927</v>
       </c>
       <c r="F10" t="n">
-        <v>34502550</v>
+        <v>37414282</v>
       </c>
       <c r="G10" t="n">
-        <v>0.59</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-11-18</t>
+          <t>2022-11-21</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -736,22 +736,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3097.24</v>
+        <v>3085.04</v>
       </c>
       <c r="E11" t="n">
-        <v>299954276</v>
+        <v>256045549</v>
       </c>
       <c r="F11" t="n">
-        <v>38920739</v>
+        <v>34502550</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2022-11-18</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3115.43</v>
+        <v>3097.24</v>
       </c>
       <c r="E12" t="n">
-        <v>287028407</v>
+        <v>299954276</v>
       </c>
       <c r="F12" t="n">
-        <v>37790011</v>
+        <v>38920739</v>
       </c>
       <c r="G12" t="n">
-        <v>0.66</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-11-16</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -794,22 +794,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3119.98</v>
+        <v>3115.43</v>
       </c>
       <c r="E13" t="n">
-        <v>303429844</v>
+        <v>287028407</v>
       </c>
       <c r="F13" t="n">
-        <v>38699291</v>
+        <v>37790011</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2022-11-16</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -823,22 +823,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3134.08</v>
+        <v>3119.98</v>
       </c>
       <c r="E14" t="n">
-        <v>331470577</v>
+        <v>303429844</v>
       </c>
       <c r="F14" t="n">
-        <v>44646001</v>
+        <v>38699291</v>
       </c>
       <c r="G14" t="n">
-        <v>0.77</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2022-11-14</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -852,22 +852,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3083.4</v>
+        <v>3134.08</v>
       </c>
       <c r="E15" t="n">
-        <v>361788216</v>
+        <v>331470577</v>
       </c>
       <c r="F15" t="n">
-        <v>45454673</v>
+        <v>44646001</v>
       </c>
       <c r="G15" t="n">
-        <v>0.85</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2022-11-11</t>
+          <t>2022-11-14</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3087.29</v>
+        <v>3083.4</v>
       </c>
       <c r="E16" t="n">
-        <v>409604534</v>
+        <v>361788216</v>
       </c>
       <c r="F16" t="n">
-        <v>51378460</v>
+        <v>45454673</v>
       </c>
       <c r="G16" t="n">
-        <v>0.95</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2022-11-10</t>
+          <t>2022-11-11</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3036.13</v>
+        <v>3087.29</v>
       </c>
       <c r="E17" t="n">
-        <v>270371798</v>
+        <v>409604534</v>
       </c>
       <c r="F17" t="n">
-        <v>33592592</v>
+        <v>51378460</v>
       </c>
       <c r="G17" t="n">
-        <v>0.62</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2022-11-09</t>
+          <t>2022-11-10</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -939,22 +939,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3048.17</v>
+        <v>3036.13</v>
       </c>
       <c r="E18" t="n">
-        <v>235637324</v>
+        <v>270371798</v>
       </c>
       <c r="F18" t="n">
-        <v>30686090</v>
+        <v>33592592</v>
       </c>
       <c r="G18" t="n">
-        <v>0.54</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2022-11-08</t>
+          <t>2022-11-09</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -968,22 +968,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3064.49</v>
+        <v>3048.17</v>
       </c>
       <c r="E19" t="n">
-        <v>256522007</v>
+        <v>235637324</v>
       </c>
       <c r="F19" t="n">
-        <v>33896694</v>
+        <v>30686090</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2022-11-07</t>
+          <t>2022-11-08</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3077.82</v>
+        <v>3064.49</v>
       </c>
       <c r="E20" t="n">
-        <v>320567097</v>
+        <v>256522007</v>
       </c>
       <c r="F20" t="n">
-        <v>42442913</v>
+        <v>33896694</v>
       </c>
       <c r="G20" t="n">
-        <v>0.74</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2022-11-04</t>
+          <t>2022-11-07</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1026,16 +1026,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3070.8</v>
+        <v>3077.82</v>
       </c>
       <c r="E21" t="n">
-        <v>329806740</v>
+        <v>320567097</v>
       </c>
       <c r="F21" t="n">
-        <v>45877009</v>
+        <v>42442913</v>
       </c>
       <c r="G21" t="n">
-        <v>0.77</v>
+        <v>0.74</v>
       </c>
     </row>
   </sheetData>
